--- a/uploads/基础信息表.xlsx
+++ b/uploads/基础信息表.xlsx
@@ -5,15 +5,18 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyongji/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/NO NAME/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Worksheet!$A$1:$Y$905</definedName>
+  </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2753" uniqueCount="1910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="1908">
   <si>
     <t xml:space="preserve">姓名	</t>
   </si>
@@ -2959,9 +2962,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>2014/7/2</t>
-  </si>
-  <si>
     <t>曾栋</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -2976,9 +2976,6 @@
   <si>
     <t>林伙进</t>
     <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>2011-8-1</t>
   </si>
   <si>
     <t>袁晓燕</t>
@@ -5847,7 +5844,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -5928,6 +5925,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -5965,7 +5968,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6057,6 +6060,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="??" xfId="2"/>
@@ -6364,11 +6368,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y905"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D905"/>
+    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="214" workbookViewId="0">
+      <selection activeCell="C235" sqref="C235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="4" width="9.5" style="31" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -6377,10 +6384,10 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -6518,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="Y2" s="30" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
@@ -6595,7 +6602,7 @@
         <v>0</v>
       </c>
       <c r="Y3" s="30" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -6672,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="Y4" s="30" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
@@ -6749,7 +6756,7 @@
         <v>0</v>
       </c>
       <c r="Y5" s="30" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -6826,7 +6833,7 @@
         <v>0</v>
       </c>
       <c r="Y6" s="30" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -6903,7 +6910,7 @@
         <v>0</v>
       </c>
       <c r="Y7" s="30" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
@@ -6980,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="Y8" s="30" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
@@ -7057,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="Y9" s="30" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
@@ -7134,7 +7141,7 @@
         <v>0</v>
       </c>
       <c r="Y10" s="30" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
@@ -7211,7 +7218,7 @@
         <v>0</v>
       </c>
       <c r="Y11" s="30" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
@@ -7288,7 +7295,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="30" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
@@ -7365,7 +7372,7 @@
         <v>0</v>
       </c>
       <c r="Y13" s="30" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
@@ -7442,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="Y14" s="30" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
@@ -7519,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="Y15" s="30" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
@@ -7596,7 +7603,7 @@
         <v>0</v>
       </c>
       <c r="Y16" s="30" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
@@ -7673,7 +7680,7 @@
         <v>0</v>
       </c>
       <c r="Y17" s="30" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
@@ -7750,7 +7757,7 @@
         <v>0</v>
       </c>
       <c r="Y18" s="30" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
@@ -7827,7 +7834,7 @@
         <v>0</v>
       </c>
       <c r="Y19" s="30" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
@@ -7904,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="Y20" s="30" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
@@ -7981,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="Y21" s="30" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
@@ -8058,7 +8065,7 @@
         <v>0</v>
       </c>
       <c r="Y22" s="30" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
@@ -8135,7 +8142,7 @@
         <v>0</v>
       </c>
       <c r="Y23" s="30" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
@@ -8212,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="Y24" s="30" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
@@ -8289,7 +8296,7 @@
         <v>0</v>
       </c>
       <c r="Y25" s="30" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.2">
@@ -8366,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="Y26" s="30" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.2">
@@ -8443,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="30" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
@@ -8520,7 +8527,7 @@
         <v>0</v>
       </c>
       <c r="Y28" s="30" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
@@ -8597,7 +8604,7 @@
         <v>0</v>
       </c>
       <c r="Y29" s="30" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
@@ -8674,7 +8681,7 @@
         <v>0</v>
       </c>
       <c r="Y30" s="30" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
@@ -8751,7 +8758,7 @@
         <v>0</v>
       </c>
       <c r="Y31" s="30" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
@@ -8828,7 +8835,7 @@
         <v>0</v>
       </c>
       <c r="Y32" s="30" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.2">
@@ -8905,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="Y33" s="30" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
@@ -8982,7 +8989,7 @@
         <v>0</v>
       </c>
       <c r="Y34" s="30" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.2">
@@ -9059,7 +9066,7 @@
         <v>0</v>
       </c>
       <c r="Y35" s="30" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.2">
@@ -9136,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="Y36" s="30" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.2">
@@ -9213,7 +9220,7 @@
         <v>0</v>
       </c>
       <c r="Y37" s="30" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.2">
@@ -9290,7 +9297,7 @@
         <v>0</v>
       </c>
       <c r="Y38" s="30" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.2">
@@ -9367,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="Y39" s="30" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.2">
@@ -9444,7 +9451,7 @@
         <v>0</v>
       </c>
       <c r="Y40" s="30" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
@@ -9521,7 +9528,7 @@
         <v>0</v>
       </c>
       <c r="Y41" s="30" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
@@ -9598,7 +9605,7 @@
         <v>0</v>
       </c>
       <c r="Y42" s="30" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.2">
@@ -9675,7 +9682,7 @@
         <v>0</v>
       </c>
       <c r="Y43" s="30" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
@@ -9752,7 +9759,7 @@
         <v>0</v>
       </c>
       <c r="Y44" s="30" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.2">
@@ -9829,7 +9836,7 @@
         <v>0</v>
       </c>
       <c r="Y45" s="30" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.2">
@@ -9906,7 +9913,7 @@
         <v>0</v>
       </c>
       <c r="Y46" s="30" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
@@ -9983,7 +9990,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="30" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
@@ -10060,7 +10067,7 @@
         <v>0</v>
       </c>
       <c r="Y48" s="30" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.2">
@@ -10137,7 +10144,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="30" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.2">
@@ -10214,7 +10221,7 @@
         <v>0</v>
       </c>
       <c r="Y50" s="30" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
@@ -10291,7 +10298,7 @@
         <v>0</v>
       </c>
       <c r="Y51" s="30" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.2">
@@ -10368,7 +10375,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="30" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.2">
@@ -10445,7 +10452,7 @@
         <v>0</v>
       </c>
       <c r="Y53" s="30" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.2">
@@ -10522,7 +10529,7 @@
         <v>0</v>
       </c>
       <c r="Y54" s="30" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.2">
@@ -10599,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="Y55" s="30" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.2">
@@ -10676,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Y56" s="30" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
@@ -10753,7 +10760,7 @@
         <v>0</v>
       </c>
       <c r="Y57" s="30" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
@@ -10830,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="Y58" s="30" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
@@ -10907,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="Y59" s="30" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.2">
@@ -10984,7 +10991,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="30" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.2">
@@ -11061,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="Y61" s="30" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.2">
@@ -11138,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="Y62" s="30" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.2">
@@ -11215,7 +11222,7 @@
         <v>0</v>
       </c>
       <c r="Y63" s="30" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.2">
@@ -11292,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="Y64" s="30" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.2">
@@ -11369,7 +11376,7 @@
         <v>0</v>
       </c>
       <c r="Y65" s="30" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.2">
@@ -11446,7 +11453,7 @@
         <v>0</v>
       </c>
       <c r="Y66" s="30" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.2">
@@ -11523,7 +11530,7 @@
         <v>0</v>
       </c>
       <c r="Y67" s="30" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
@@ -11533,8 +11540,8 @@
       <c r="B68" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>976</v>
+      <c r="C68" s="6">
+        <v>41822</v>
       </c>
       <c r="D68" s="6">
         <v>41822</v>
@@ -11600,7 +11607,7 @@
         <v>0</v>
       </c>
       <c r="Y68" s="30" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.2">
@@ -11677,7 +11684,7 @@
         <v>0</v>
       </c>
       <c r="Y69" s="30" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.2">
@@ -11754,7 +11761,7 @@
         <v>0</v>
       </c>
       <c r="Y70" s="30" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.2">
@@ -11831,7 +11838,7 @@
         <v>0</v>
       </c>
       <c r="Y71" s="30" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.2">
@@ -11908,7 +11915,7 @@
         <v>0</v>
       </c>
       <c r="Y72" s="30" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.2">
@@ -11985,7 +11992,7 @@
         <v>0</v>
       </c>
       <c r="Y73" s="30" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.2">
@@ -12062,7 +12069,7 @@
         <v>0</v>
       </c>
       <c r="Y74" s="30" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.2">
@@ -12072,8 +12079,8 @@
       <c r="B75" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C75" s="8" t="s">
-        <v>976</v>
+      <c r="C75" s="8">
+        <v>41822</v>
       </c>
       <c r="D75" s="8">
         <v>41822</v>
@@ -12139,7 +12146,7 @@
         <v>0</v>
       </c>
       <c r="Y75" s="30" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.2">
@@ -12216,7 +12223,7 @@
         <v>0</v>
       </c>
       <c r="Y76" s="30" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.2">
@@ -12226,8 +12233,8 @@
       <c r="B77" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>976</v>
+      <c r="C77" s="8">
+        <v>41822</v>
       </c>
       <c r="D77" s="3">
         <v>41822</v>
@@ -12293,7 +12300,7 @@
         <v>0</v>
       </c>
       <c r="Y77" s="30" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.2">
@@ -12370,7 +12377,7 @@
         <v>0</v>
       </c>
       <c r="Y78" s="30" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.2">
@@ -12447,7 +12454,7 @@
         <v>0</v>
       </c>
       <c r="Y79" s="30" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.2">
@@ -12524,7 +12531,7 @@
         <v>0</v>
       </c>
       <c r="Y80" s="30" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.2">
@@ -12601,7 +12608,7 @@
         <v>0</v>
       </c>
       <c r="Y81" s="30" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.2">
@@ -12678,7 +12685,7 @@
         <v>0</v>
       </c>
       <c r="Y82" s="30" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.2">
@@ -12755,7 +12762,7 @@
         <v>0</v>
       </c>
       <c r="Y83" s="30" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.2">
@@ -12832,7 +12839,7 @@
         <v>0</v>
       </c>
       <c r="Y84" s="30" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.2">
@@ -12909,7 +12916,7 @@
         <v>0</v>
       </c>
       <c r="Y85" s="30" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.2">
@@ -12986,7 +12993,7 @@
         <v>0</v>
       </c>
       <c r="Y86" s="30" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.2">
@@ -13063,7 +13070,7 @@
         <v>0</v>
       </c>
       <c r="Y87" s="30" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.2">
@@ -13140,7 +13147,7 @@
         <v>0</v>
       </c>
       <c r="Y88" s="30" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.2">
@@ -13217,7 +13224,7 @@
         <v>0</v>
       </c>
       <c r="Y89" s="30" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.2">
@@ -13294,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="Y90" s="30" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.2">
@@ -13371,7 +13378,7 @@
         <v>0</v>
       </c>
       <c r="Y91" s="30" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.2">
@@ -13448,7 +13455,7 @@
         <v>0</v>
       </c>
       <c r="Y92" s="30" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.2">
@@ -13525,7 +13532,7 @@
         <v>0</v>
       </c>
       <c r="Y93" s="30" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.2">
@@ -13602,7 +13609,7 @@
         <v>0</v>
       </c>
       <c r="Y94" s="30" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.2">
@@ -13679,7 +13686,7 @@
         <v>0</v>
       </c>
       <c r="Y95" s="30" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.2">
@@ -13756,7 +13763,7 @@
         <v>0</v>
       </c>
       <c r="Y96" s="30" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.2">
@@ -13833,7 +13840,7 @@
         <v>0</v>
       </c>
       <c r="Y97" s="30" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.2">
@@ -13910,7 +13917,7 @@
         <v>0</v>
       </c>
       <c r="Y98" s="30" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.2">
@@ -13987,7 +13994,7 @@
         <v>0</v>
       </c>
       <c r="Y99" s="30" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.2">
@@ -14064,7 +14071,7 @@
         <v>0</v>
       </c>
       <c r="Y100" s="30" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.2">
@@ -14141,7 +14148,7 @@
         <v>0</v>
       </c>
       <c r="Y101" s="30" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.2">
@@ -14218,7 +14225,7 @@
         <v>0</v>
       </c>
       <c r="Y102" s="30" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.2">
@@ -14295,7 +14302,7 @@
         <v>0</v>
       </c>
       <c r="Y103" s="30" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.2">
@@ -14372,7 +14379,7 @@
         <v>0</v>
       </c>
       <c r="Y104" s="30" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.2">
@@ -14449,7 +14456,7 @@
         <v>0</v>
       </c>
       <c r="Y105" s="30" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.2">
@@ -14526,7 +14533,7 @@
         <v>0</v>
       </c>
       <c r="Y106" s="30" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.2">
@@ -14603,7 +14610,7 @@
         <v>0</v>
       </c>
       <c r="Y107" s="30" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.2">
@@ -14680,7 +14687,7 @@
         <v>0</v>
       </c>
       <c r="Y108" s="30" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.2">
@@ -14757,7 +14764,7 @@
         <v>0</v>
       </c>
       <c r="Y109" s="30" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.2">
@@ -14834,7 +14841,7 @@
         <v>0</v>
       </c>
       <c r="Y110" s="30" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.2">
@@ -14911,7 +14918,7 @@
         <v>0</v>
       </c>
       <c r="Y111" s="30" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.2">
@@ -14988,7 +14995,7 @@
         <v>0</v>
       </c>
       <c r="Y112" s="30" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.2">
@@ -15065,7 +15072,7 @@
         <v>0</v>
       </c>
       <c r="Y113" s="30" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.2">
@@ -15142,7 +15149,7 @@
         <v>0</v>
       </c>
       <c r="Y114" s="30" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.2">
@@ -15219,7 +15226,7 @@
         <v>0</v>
       </c>
       <c r="Y115" s="30" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.2">
@@ -15296,7 +15303,7 @@
         <v>0</v>
       </c>
       <c r="Y116" s="30" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.2">
@@ -15373,7 +15380,7 @@
         <v>0</v>
       </c>
       <c r="Y117" s="30" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.2">
@@ -15450,7 +15457,7 @@
         <v>0</v>
       </c>
       <c r="Y118" s="30" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.2">
@@ -15527,7 +15534,7 @@
         <v>0</v>
       </c>
       <c r="Y119" s="30" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.2">
@@ -15604,7 +15611,7 @@
         <v>0</v>
       </c>
       <c r="Y120" s="30" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.2">
@@ -15681,7 +15688,7 @@
         <v>0</v>
       </c>
       <c r="Y121" s="30" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.2">
@@ -15758,7 +15765,7 @@
         <v>0</v>
       </c>
       <c r="Y122" s="30" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.2">
@@ -15768,8 +15775,8 @@
       <c r="B123" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C123" s="3" t="s">
-        <v>976</v>
+      <c r="C123" s="8">
+        <v>41822</v>
       </c>
       <c r="D123" s="3">
         <v>41822</v>
@@ -15835,7 +15842,7 @@
         <v>0</v>
       </c>
       <c r="Y123" s="30" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.2">
@@ -15912,7 +15919,7 @@
         <v>0</v>
       </c>
       <c r="Y124" s="30" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.2">
@@ -15989,7 +15996,7 @@
         <v>0</v>
       </c>
       <c r="Y125" s="30" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.2">
@@ -16066,7 +16073,7 @@
         <v>0</v>
       </c>
       <c r="Y126" s="30" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.2">
@@ -16143,7 +16150,7 @@
         <v>0</v>
       </c>
       <c r="Y127" s="30" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.2">
@@ -16220,7 +16227,7 @@
         <v>0</v>
       </c>
       <c r="Y128" s="30" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="129" spans="1:25" x14ac:dyDescent="0.2">
@@ -16297,7 +16304,7 @@
         <v>0</v>
       </c>
       <c r="Y129" s="30" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="130" spans="1:25" x14ac:dyDescent="0.2">
@@ -16374,7 +16381,7 @@
         <v>0</v>
       </c>
       <c r="Y130" s="30" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="131" spans="1:25" x14ac:dyDescent="0.2">
@@ -16451,7 +16458,7 @@
         <v>0</v>
       </c>
       <c r="Y131" s="30" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="132" spans="1:25" x14ac:dyDescent="0.2">
@@ -16528,7 +16535,7 @@
         <v>0</v>
       </c>
       <c r="Y132" s="30" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="133" spans="1:25" x14ac:dyDescent="0.2">
@@ -16605,7 +16612,7 @@
         <v>0</v>
       </c>
       <c r="Y133" s="30" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="134" spans="1:25" x14ac:dyDescent="0.2">
@@ -16682,7 +16689,7 @@
         <v>0</v>
       </c>
       <c r="Y134" s="30" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="135" spans="1:25" x14ac:dyDescent="0.2">
@@ -16759,7 +16766,7 @@
         <v>0</v>
       </c>
       <c r="Y135" s="30" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="136" spans="1:25" x14ac:dyDescent="0.2">
@@ -16769,8 +16776,8 @@
       <c r="B136" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C136" s="3" t="s">
-        <v>976</v>
+      <c r="C136" s="8">
+        <v>41822</v>
       </c>
       <c r="D136" s="3">
         <v>41822</v>
@@ -16836,7 +16843,7 @@
         <v>0</v>
       </c>
       <c r="Y136" s="30" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="137" spans="1:25" x14ac:dyDescent="0.2">
@@ -16846,8 +16853,8 @@
       <c r="B137" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C137" s="3" t="s">
-        <v>976</v>
+      <c r="C137" s="8">
+        <v>41822</v>
       </c>
       <c r="D137" s="3">
         <v>41822</v>
@@ -16913,7 +16920,7 @@
         <v>0</v>
       </c>
       <c r="Y137" s="30" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="138" spans="1:25" x14ac:dyDescent="0.2">
@@ -16990,7 +16997,7 @@
         <v>0</v>
       </c>
       <c r="Y138" s="30" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="139" spans="1:25" x14ac:dyDescent="0.2">
@@ -17067,7 +17074,7 @@
         <v>0</v>
       </c>
       <c r="Y139" s="30" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="140" spans="1:25" x14ac:dyDescent="0.2">
@@ -17144,7 +17151,7 @@
         <v>0</v>
       </c>
       <c r="Y140" s="30" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="141" spans="1:25" x14ac:dyDescent="0.2">
@@ -17221,7 +17228,7 @@
         <v>0</v>
       </c>
       <c r="Y141" s="30" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="142" spans="1:25" x14ac:dyDescent="0.2">
@@ -17298,7 +17305,7 @@
         <v>0</v>
       </c>
       <c r="Y142" s="30" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="143" spans="1:25" x14ac:dyDescent="0.2">
@@ -17375,7 +17382,7 @@
         <v>0</v>
       </c>
       <c r="Y143" s="30" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="144" spans="1:25" x14ac:dyDescent="0.2">
@@ -17452,7 +17459,7 @@
         <v>0</v>
       </c>
       <c r="Y144" s="30" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="145" spans="1:25" x14ac:dyDescent="0.2">
@@ -17529,7 +17536,7 @@
         <v>0</v>
       </c>
       <c r="Y145" s="30" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="146" spans="1:25" x14ac:dyDescent="0.2">
@@ -17606,7 +17613,7 @@
         <v>0</v>
       </c>
       <c r="Y146" s="30" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="147" spans="1:25" x14ac:dyDescent="0.2">
@@ -17683,7 +17690,7 @@
         <v>0</v>
       </c>
       <c r="Y147" s="30" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="148" spans="1:25" x14ac:dyDescent="0.2">
@@ -17760,7 +17767,7 @@
         <v>0</v>
       </c>
       <c r="Y148" s="30" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="149" spans="1:25" x14ac:dyDescent="0.2">
@@ -17770,8 +17777,8 @@
       <c r="B149" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C149" s="8" t="s">
-        <v>976</v>
+      <c r="C149" s="8">
+        <v>41822</v>
       </c>
       <c r="D149" s="8">
         <v>41822</v>
@@ -17837,7 +17844,7 @@
         <v>0</v>
       </c>
       <c r="Y149" s="30" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="150" spans="1:25" x14ac:dyDescent="0.2">
@@ -17914,7 +17921,7 @@
         <v>0</v>
       </c>
       <c r="Y150" s="30" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="151" spans="1:25" x14ac:dyDescent="0.2">
@@ -17991,7 +17998,7 @@
         <v>0</v>
       </c>
       <c r="Y151" s="30" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="152" spans="1:25" x14ac:dyDescent="0.2">
@@ -18001,8 +18008,8 @@
       <c r="B152" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C152" s="3" t="s">
-        <v>976</v>
+      <c r="C152" s="8">
+        <v>41822</v>
       </c>
       <c r="D152" s="3">
         <v>41822</v>
@@ -18068,7 +18075,7 @@
         <v>0</v>
       </c>
       <c r="Y152" s="30" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="153" spans="1:25" x14ac:dyDescent="0.2">
@@ -18145,7 +18152,7 @@
         <v>0</v>
       </c>
       <c r="Y153" s="30" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="154" spans="1:25" x14ac:dyDescent="0.2">
@@ -18222,7 +18229,7 @@
         <v>0</v>
       </c>
       <c r="Y154" s="30" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="155" spans="1:25" x14ac:dyDescent="0.2">
@@ -18299,7 +18306,7 @@
         <v>0</v>
       </c>
       <c r="Y155" s="30" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.2">
@@ -18376,7 +18383,7 @@
         <v>0</v>
       </c>
       <c r="Y156" s="30" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.2">
@@ -18453,7 +18460,7 @@
         <v>0</v>
       </c>
       <c r="Y157" s="30" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="158" spans="1:25" x14ac:dyDescent="0.2">
@@ -18530,7 +18537,7 @@
         <v>0</v>
       </c>
       <c r="Y158" s="30" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="159" spans="1:25" x14ac:dyDescent="0.2">
@@ -18607,7 +18614,7 @@
         <v>0</v>
       </c>
       <c r="Y159" s="30" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="160" spans="1:25" x14ac:dyDescent="0.2">
@@ -18684,7 +18691,7 @@
         <v>0</v>
       </c>
       <c r="Y160" s="30" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="161" spans="1:25" x14ac:dyDescent="0.2">
@@ -18761,7 +18768,7 @@
         <v>0</v>
       </c>
       <c r="Y161" s="30" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="162" spans="1:25" x14ac:dyDescent="0.2">
@@ -18838,7 +18845,7 @@
         <v>0</v>
       </c>
       <c r="Y162" s="30" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="163" spans="1:25" x14ac:dyDescent="0.2">
@@ -18915,7 +18922,7 @@
         <v>0</v>
       </c>
       <c r="Y163" s="30" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="164" spans="1:25" x14ac:dyDescent="0.2">
@@ -18992,7 +18999,7 @@
         <v>0</v>
       </c>
       <c r="Y164" s="30" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="165" spans="1:25" x14ac:dyDescent="0.2">
@@ -19069,7 +19076,7 @@
         <v>0</v>
       </c>
       <c r="Y165" s="30" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="166" spans="1:25" x14ac:dyDescent="0.2">
@@ -19146,12 +19153,12 @@
         <v>0</v>
       </c>
       <c r="Y166" s="30" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="167" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A167" s="12" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>177</v>
@@ -19223,7 +19230,7 @@
         <v>0</v>
       </c>
       <c r="Y167" s="30" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="168" spans="1:25" x14ac:dyDescent="0.2">
@@ -19300,7 +19307,7 @@
         <v>0</v>
       </c>
       <c r="Y168" s="30" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="169" spans="1:25" x14ac:dyDescent="0.2">
@@ -19377,7 +19384,7 @@
         <v>0</v>
       </c>
       <c r="Y169" s="30" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="170" spans="1:25" x14ac:dyDescent="0.2">
@@ -19454,7 +19461,7 @@
         <v>0</v>
       </c>
       <c r="Y170" s="30" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="171" spans="1:25" x14ac:dyDescent="0.2">
@@ -19464,8 +19471,8 @@
       <c r="B171" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C171" s="14" t="s">
-        <v>976</v>
+      <c r="C171" s="8">
+        <v>41822</v>
       </c>
       <c r="D171" s="14">
         <v>41822</v>
@@ -19531,7 +19538,7 @@
         <v>0</v>
       </c>
       <c r="Y171" s="30" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="172" spans="1:25" x14ac:dyDescent="0.2">
@@ -19608,7 +19615,7 @@
         <v>0</v>
       </c>
       <c r="Y172" s="30" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="173" spans="1:25" x14ac:dyDescent="0.2">
@@ -19685,7 +19692,7 @@
         <v>0</v>
       </c>
       <c r="Y173" s="30" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="174" spans="1:25" x14ac:dyDescent="0.2">
@@ -19762,7 +19769,7 @@
         <v>0</v>
       </c>
       <c r="Y174" s="30" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="175" spans="1:25" x14ac:dyDescent="0.2">
@@ -19839,7 +19846,7 @@
         <v>0</v>
       </c>
       <c r="Y175" s="30" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="176" spans="1:25" x14ac:dyDescent="0.2">
@@ -19916,7 +19923,7 @@
         <v>0</v>
       </c>
       <c r="Y176" s="30" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="177" spans="1:25" x14ac:dyDescent="0.2">
@@ -19993,7 +20000,7 @@
         <v>0</v>
       </c>
       <c r="Y177" s="30" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="178" spans="1:25" x14ac:dyDescent="0.2">
@@ -20070,7 +20077,7 @@
         <v>0</v>
       </c>
       <c r="Y178" s="30" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="179" spans="1:25" x14ac:dyDescent="0.2">
@@ -20147,7 +20154,7 @@
         <v>0</v>
       </c>
       <c r="Y179" s="30" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="180" spans="1:25" x14ac:dyDescent="0.2">
@@ -20224,7 +20231,7 @@
         <v>0</v>
       </c>
       <c r="Y180" s="30" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="181" spans="1:25" x14ac:dyDescent="0.2">
@@ -20301,7 +20308,7 @@
         <v>0</v>
       </c>
       <c r="Y181" s="30" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="182" spans="1:25" x14ac:dyDescent="0.2">
@@ -20378,7 +20385,7 @@
         <v>0</v>
       </c>
       <c r="Y182" s="30" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="183" spans="1:25" x14ac:dyDescent="0.2">
@@ -20455,7 +20462,7 @@
         <v>0</v>
       </c>
       <c r="Y183" s="30" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="184" spans="1:25" x14ac:dyDescent="0.2">
@@ -20532,7 +20539,7 @@
         <v>0</v>
       </c>
       <c r="Y184" s="30" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="185" spans="1:25" x14ac:dyDescent="0.2">
@@ -20609,7 +20616,7 @@
         <v>0</v>
       </c>
       <c r="Y185" s="30" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="186" spans="1:25" x14ac:dyDescent="0.2">
@@ -20686,7 +20693,7 @@
         <v>0</v>
       </c>
       <c r="Y186" s="30" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="187" spans="1:25" x14ac:dyDescent="0.2">
@@ -20763,7 +20770,7 @@
         <v>0</v>
       </c>
       <c r="Y187" s="30" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="188" spans="1:25" x14ac:dyDescent="0.2">
@@ -20840,7 +20847,7 @@
         <v>0</v>
       </c>
       <c r="Y188" s="30" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="189" spans="1:25" x14ac:dyDescent="0.2">
@@ -20917,7 +20924,7 @@
         <v>0</v>
       </c>
       <c r="Y189" s="30" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="190" spans="1:25" x14ac:dyDescent="0.2">
@@ -20994,7 +21001,7 @@
         <v>0</v>
       </c>
       <c r="Y190" s="30" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="191" spans="1:25" x14ac:dyDescent="0.2">
@@ -21071,7 +21078,7 @@
         <v>0</v>
       </c>
       <c r="Y191" s="30" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="192" spans="1:25" x14ac:dyDescent="0.2">
@@ -21148,7 +21155,7 @@
         <v>0</v>
       </c>
       <c r="Y192" s="30" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="193" spans="1:25" x14ac:dyDescent="0.2">
@@ -21225,7 +21232,7 @@
         <v>0</v>
       </c>
       <c r="Y193" s="30" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="194" spans="1:25" x14ac:dyDescent="0.2">
@@ -21302,7 +21309,7 @@
         <v>0</v>
       </c>
       <c r="Y194" s="30" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="195" spans="1:25" x14ac:dyDescent="0.2">
@@ -21379,7 +21386,7 @@
         <v>0</v>
       </c>
       <c r="Y195" s="30" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="196" spans="1:25" x14ac:dyDescent="0.2">
@@ -21456,7 +21463,7 @@
         <v>0</v>
       </c>
       <c r="Y196" s="30" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="197" spans="1:25" x14ac:dyDescent="0.2">
@@ -21533,7 +21540,7 @@
         <v>0</v>
       </c>
       <c r="Y197" s="30" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="198" spans="1:25" x14ac:dyDescent="0.2">
@@ -21610,7 +21617,7 @@
         <v>0</v>
       </c>
       <c r="Y198" s="30" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="199" spans="1:25" x14ac:dyDescent="0.2">
@@ -21687,7 +21694,7 @@
         <v>0</v>
       </c>
       <c r="Y199" s="30" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="200" spans="1:25" x14ac:dyDescent="0.2">
@@ -21764,7 +21771,7 @@
         <v>0</v>
       </c>
       <c r="Y200" s="30" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="201" spans="1:25" x14ac:dyDescent="0.2">
@@ -21841,7 +21848,7 @@
         <v>0</v>
       </c>
       <c r="Y201" s="30" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="202" spans="1:25" x14ac:dyDescent="0.2">
@@ -21918,7 +21925,7 @@
         <v>0</v>
       </c>
       <c r="Y202" s="30" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="203" spans="1:25" x14ac:dyDescent="0.2">
@@ -21995,7 +22002,7 @@
         <v>0</v>
       </c>
       <c r="Y203" s="30" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="204" spans="1:25" x14ac:dyDescent="0.2">
@@ -22072,7 +22079,7 @@
         <v>0</v>
       </c>
       <c r="Y204" s="30" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="205" spans="1:25" x14ac:dyDescent="0.2">
@@ -22149,7 +22156,7 @@
         <v>0</v>
       </c>
       <c r="Y205" s="30" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="206" spans="1:25" x14ac:dyDescent="0.2">
@@ -22226,7 +22233,7 @@
         <v>0</v>
       </c>
       <c r="Y206" s="30" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="207" spans="1:25" x14ac:dyDescent="0.2">
@@ -22303,7 +22310,7 @@
         <v>0</v>
       </c>
       <c r="Y207" s="30" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="208" spans="1:25" x14ac:dyDescent="0.2">
@@ -22380,7 +22387,7 @@
         <v>0</v>
       </c>
       <c r="Y208" s="30" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="209" spans="1:25" x14ac:dyDescent="0.2">
@@ -22457,7 +22464,7 @@
         <v>0</v>
       </c>
       <c r="Y209" s="30" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="210" spans="1:25" x14ac:dyDescent="0.2">
@@ -22534,7 +22541,7 @@
         <v>0</v>
       </c>
       <c r="Y210" s="30" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="211" spans="1:25" x14ac:dyDescent="0.2">
@@ -22611,7 +22618,7 @@
         <v>0</v>
       </c>
       <c r="Y211" s="30" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="212" spans="1:25" x14ac:dyDescent="0.2">
@@ -22688,7 +22695,7 @@
         <v>0</v>
       </c>
       <c r="Y212" s="30" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="213" spans="1:25" x14ac:dyDescent="0.2">
@@ -22765,7 +22772,7 @@
         <v>0</v>
       </c>
       <c r="Y213" s="30" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="214" spans="1:25" x14ac:dyDescent="0.2">
@@ -22775,8 +22782,8 @@
       <c r="B214" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C214" s="3" t="s">
-        <v>976</v>
+      <c r="C214" s="8">
+        <v>41822</v>
       </c>
       <c r="D214" s="3">
         <v>41822</v>
@@ -22842,7 +22849,7 @@
         <v>0</v>
       </c>
       <c r="Y214" s="30" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="215" spans="1:25" x14ac:dyDescent="0.2">
@@ -22919,7 +22926,7 @@
         <v>0</v>
       </c>
       <c r="Y215" s="30" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="216" spans="1:25" x14ac:dyDescent="0.2">
@@ -22929,8 +22936,8 @@
       <c r="B216" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C216" s="8" t="s">
-        <v>976</v>
+      <c r="C216" s="8">
+        <v>41822</v>
       </c>
       <c r="D216" s="8">
         <v>41822</v>
@@ -22996,7 +23003,7 @@
         <v>0</v>
       </c>
       <c r="Y216" s="30" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="217" spans="1:25" x14ac:dyDescent="0.2">
@@ -23073,7 +23080,7 @@
         <v>0</v>
       </c>
       <c r="Y217" s="30" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="218" spans="1:25" x14ac:dyDescent="0.2">
@@ -23150,7 +23157,7 @@
         <v>0</v>
       </c>
       <c r="Y218" s="30" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="219" spans="1:25" x14ac:dyDescent="0.2">
@@ -23160,8 +23167,8 @@
       <c r="B219" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C219" s="8" t="s">
-        <v>976</v>
+      <c r="C219" s="8">
+        <v>41822</v>
       </c>
       <c r="D219" s="8">
         <v>41822</v>
@@ -23227,7 +23234,7 @@
         <v>0</v>
       </c>
       <c r="Y219" s="30" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="220" spans="1:25" x14ac:dyDescent="0.2">
@@ -23304,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="Y220" s="30" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="221" spans="1:25" x14ac:dyDescent="0.2">
@@ -23381,7 +23388,7 @@
         <v>0</v>
       </c>
       <c r="Y221" s="30" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="222" spans="1:25" x14ac:dyDescent="0.2">
@@ -23458,7 +23465,7 @@
         <v>0</v>
       </c>
       <c r="Y222" s="30" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="223" spans="1:25" x14ac:dyDescent="0.2">
@@ -23535,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="Y223" s="30" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="224" spans="1:25" x14ac:dyDescent="0.2">
@@ -23612,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="Y224" s="30" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="225" spans="1:25" x14ac:dyDescent="0.2">
@@ -23689,7 +23696,7 @@
         <v>0</v>
       </c>
       <c r="Y225" s="30" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="226" spans="1:25" x14ac:dyDescent="0.2">
@@ -23766,7 +23773,7 @@
         <v>0</v>
       </c>
       <c r="Y226" s="30" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="227" spans="1:25" x14ac:dyDescent="0.2">
@@ -23843,7 +23850,7 @@
         <v>0</v>
       </c>
       <c r="Y227" s="30" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="228" spans="1:25" x14ac:dyDescent="0.2">
@@ -23920,7 +23927,7 @@
         <v>0</v>
       </c>
       <c r="Y228" s="30" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="229" spans="1:25" x14ac:dyDescent="0.2">
@@ -23997,7 +24004,7 @@
         <v>0</v>
       </c>
       <c r="Y229" s="30" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="230" spans="1:25" x14ac:dyDescent="0.2">
@@ -24074,7 +24081,7 @@
         <v>0</v>
       </c>
       <c r="Y230" s="30" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="231" spans="1:25" x14ac:dyDescent="0.2">
@@ -24151,7 +24158,7 @@
         <v>0</v>
       </c>
       <c r="Y231" s="30" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="232" spans="1:25" x14ac:dyDescent="0.2">
@@ -24228,7 +24235,7 @@
         <v>0</v>
       </c>
       <c r="Y232" s="30" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="233" spans="1:25" x14ac:dyDescent="0.2">
@@ -24305,7 +24312,7 @@
         <v>0</v>
       </c>
       <c r="Y233" s="30" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="234" spans="1:25" x14ac:dyDescent="0.2">
@@ -24382,7 +24389,7 @@
         <v>0</v>
       </c>
       <c r="Y234" s="30" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="235" spans="1:25" x14ac:dyDescent="0.2">
@@ -24459,7 +24466,7 @@
         <v>0</v>
       </c>
       <c r="Y235" s="30" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="236" spans="1:25" x14ac:dyDescent="0.2">
@@ -24536,7 +24543,7 @@
         <v>0</v>
       </c>
       <c r="Y236" s="30" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="237" spans="1:25" x14ac:dyDescent="0.2">
@@ -24613,7 +24620,7 @@
         <v>0</v>
       </c>
       <c r="Y237" s="30" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="238" spans="1:25" x14ac:dyDescent="0.2">
@@ -24690,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="Y238" s="30" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="239" spans="1:25" x14ac:dyDescent="0.2">
@@ -24767,7 +24774,7 @@
         <v>0</v>
       </c>
       <c r="Y239" s="30" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="240" spans="1:25" x14ac:dyDescent="0.2">
@@ -24844,7 +24851,7 @@
         <v>0</v>
       </c>
       <c r="Y240" s="30" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="241" spans="1:25" x14ac:dyDescent="0.2">
@@ -24921,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="Y241" s="30" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="242" spans="1:25" x14ac:dyDescent="0.2">
@@ -24998,7 +25005,7 @@
         <v>0</v>
       </c>
       <c r="Y242" s="30" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="243" spans="1:25" x14ac:dyDescent="0.2">
@@ -25075,7 +25082,7 @@
         <v>0</v>
       </c>
       <c r="Y243" s="30" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="244" spans="1:25" x14ac:dyDescent="0.2">
@@ -25152,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="Y244" s="30" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="245" spans="1:25" x14ac:dyDescent="0.2">
@@ -25229,7 +25236,7 @@
         <v>0</v>
       </c>
       <c r="Y245" s="30" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="246" spans="1:25" x14ac:dyDescent="0.2">
@@ -25306,7 +25313,7 @@
         <v>0</v>
       </c>
       <c r="Y246" s="30" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="247" spans="1:25" x14ac:dyDescent="0.2">
@@ -25316,8 +25323,8 @@
       <c r="B247" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C247" s="3" t="s">
-        <v>976</v>
+      <c r="C247" s="8">
+        <v>41822</v>
       </c>
       <c r="D247" s="3">
         <v>41822</v>
@@ -25383,7 +25390,7 @@
         <v>0</v>
       </c>
       <c r="Y247" s="30" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="248" spans="1:25" x14ac:dyDescent="0.2">
@@ -25460,7 +25467,7 @@
         <v>0</v>
       </c>
       <c r="Y248" s="30" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="249" spans="1:25" x14ac:dyDescent="0.2">
@@ -25537,7 +25544,7 @@
         <v>0</v>
       </c>
       <c r="Y249" s="30" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="250" spans="1:25" x14ac:dyDescent="0.2">
@@ -25614,7 +25621,7 @@
         <v>0</v>
       </c>
       <c r="Y250" s="30" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="251" spans="1:25" x14ac:dyDescent="0.2">
@@ -25691,7 +25698,7 @@
         <v>0</v>
       </c>
       <c r="Y251" s="30" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="252" spans="1:25" x14ac:dyDescent="0.2">
@@ -25768,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y252" s="30" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="253" spans="1:25" x14ac:dyDescent="0.2">
@@ -25845,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y253" s="30" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="254" spans="1:25" x14ac:dyDescent="0.2">
@@ -25922,7 +25929,7 @@
         <v>0</v>
       </c>
       <c r="Y254" s="30" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="255" spans="1:25" x14ac:dyDescent="0.2">
@@ -25999,7 +26006,7 @@
         <v>0</v>
       </c>
       <c r="Y255" s="30" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="256" spans="1:25" x14ac:dyDescent="0.2">
@@ -26076,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="Y256" s="30" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="257" spans="1:25" x14ac:dyDescent="0.2">
@@ -26153,7 +26160,7 @@
         <v>0</v>
       </c>
       <c r="Y257" s="30" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="258" spans="1:25" x14ac:dyDescent="0.2">
@@ -26230,7 +26237,7 @@
         <v>0</v>
       </c>
       <c r="Y258" s="30" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="259" spans="1:25" x14ac:dyDescent="0.2">
@@ -26307,7 +26314,7 @@
         <v>0</v>
       </c>
       <c r="Y259" s="30" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="260" spans="1:25" x14ac:dyDescent="0.2">
@@ -26384,7 +26391,7 @@
         <v>0</v>
       </c>
       <c r="Y260" s="30" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="261" spans="1:25" x14ac:dyDescent="0.2">
@@ -26461,7 +26468,7 @@
         <v>0</v>
       </c>
       <c r="Y261" s="30" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="262" spans="1:25" x14ac:dyDescent="0.2">
@@ -26538,7 +26545,7 @@
         <v>0</v>
       </c>
       <c r="Y262" s="30" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="263" spans="1:25" x14ac:dyDescent="0.2">
@@ -26615,7 +26622,7 @@
         <v>0</v>
       </c>
       <c r="Y263" s="30" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="264" spans="1:25" x14ac:dyDescent="0.2">
@@ -26692,7 +26699,7 @@
         <v>0</v>
       </c>
       <c r="Y264" s="30" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="265" spans="1:25" x14ac:dyDescent="0.2">
@@ -26769,7 +26776,7 @@
         <v>0</v>
       </c>
       <c r="Y265" s="30" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="266" spans="1:25" x14ac:dyDescent="0.2">
@@ -26846,7 +26853,7 @@
         <v>0</v>
       </c>
       <c r="Y266" s="30" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="267" spans="1:25" x14ac:dyDescent="0.2">
@@ -26923,7 +26930,7 @@
         <v>0</v>
       </c>
       <c r="Y267" s="30" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="268" spans="1:25" x14ac:dyDescent="0.2">
@@ -27000,7 +27007,7 @@
         <v>0</v>
       </c>
       <c r="Y268" s="30" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="269" spans="1:25" x14ac:dyDescent="0.2">
@@ -27077,7 +27084,7 @@
         <v>0</v>
       </c>
       <c r="Y269" s="30" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="270" spans="1:25" x14ac:dyDescent="0.2">
@@ -27154,7 +27161,7 @@
         <v>0</v>
       </c>
       <c r="Y270" s="30" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="271" spans="1:25" x14ac:dyDescent="0.2">
@@ -27231,7 +27238,7 @@
         <v>0</v>
       </c>
       <c r="Y271" s="30" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="272" spans="1:25" x14ac:dyDescent="0.2">
@@ -27308,7 +27315,7 @@
         <v>0</v>
       </c>
       <c r="Y272" s="30" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="273" spans="1:25" x14ac:dyDescent="0.2">
@@ -27385,7 +27392,7 @@
         <v>0</v>
       </c>
       <c r="Y273" s="30" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="274" spans="1:25" x14ac:dyDescent="0.2">
@@ -27462,7 +27469,7 @@
         <v>0</v>
       </c>
       <c r="Y274" s="30" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="275" spans="1:25" x14ac:dyDescent="0.2">
@@ -27539,7 +27546,7 @@
         <v>0</v>
       </c>
       <c r="Y275" s="30" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="276" spans="1:25" x14ac:dyDescent="0.2">
@@ -27616,7 +27623,7 @@
         <v>0</v>
       </c>
       <c r="Y276" s="30" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="277" spans="1:25" x14ac:dyDescent="0.2">
@@ -27693,7 +27700,7 @@
         <v>0</v>
       </c>
       <c r="Y277" s="30" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="278" spans="1:25" x14ac:dyDescent="0.2">
@@ -27770,7 +27777,7 @@
         <v>0</v>
       </c>
       <c r="Y278" s="30" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="279" spans="1:25" x14ac:dyDescent="0.2">
@@ -27847,7 +27854,7 @@
         <v>0</v>
       </c>
       <c r="Y279" s="30" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="280" spans="1:25" x14ac:dyDescent="0.2">
@@ -27924,7 +27931,7 @@
         <v>0</v>
       </c>
       <c r="Y280" s="30" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="281" spans="1:25" x14ac:dyDescent="0.2">
@@ -28001,7 +28008,7 @@
         <v>0</v>
       </c>
       <c r="Y281" s="30" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="282" spans="1:25" x14ac:dyDescent="0.2">
@@ -28078,7 +28085,7 @@
         <v>0</v>
       </c>
       <c r="Y282" s="30" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="283" spans="1:25" x14ac:dyDescent="0.2">
@@ -28155,7 +28162,7 @@
         <v>0</v>
       </c>
       <c r="Y283" s="30" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="284" spans="1:25" x14ac:dyDescent="0.2">
@@ -28232,7 +28239,7 @@
         <v>0</v>
       </c>
       <c r="Y284" s="30" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="285" spans="1:25" x14ac:dyDescent="0.2">
@@ -28309,7 +28316,7 @@
         <v>0</v>
       </c>
       <c r="Y285" s="30" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="286" spans="1:25" x14ac:dyDescent="0.2">
@@ -28386,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y286" s="30" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="287" spans="1:25" x14ac:dyDescent="0.2">
@@ -28463,7 +28470,7 @@
         <v>0</v>
       </c>
       <c r="Y287" s="30" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="288" spans="1:25" x14ac:dyDescent="0.2">
@@ -28540,7 +28547,7 @@
         <v>0</v>
       </c>
       <c r="Y288" s="30" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="289" spans="1:25" x14ac:dyDescent="0.2">
@@ -28550,8 +28557,8 @@
       <c r="B289" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C289" s="3" t="s">
-        <v>976</v>
+      <c r="C289" s="8">
+        <v>41822</v>
       </c>
       <c r="D289" s="3">
         <v>41822</v>
@@ -28617,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="Y289" s="30" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="290" spans="1:25" x14ac:dyDescent="0.2">
@@ -28694,7 +28701,7 @@
         <v>0</v>
       </c>
       <c r="Y290" s="30" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="291" spans="1:25" x14ac:dyDescent="0.2">
@@ -28771,7 +28778,7 @@
         <v>0</v>
       </c>
       <c r="Y291" s="30" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="292" spans="1:25" x14ac:dyDescent="0.2">
@@ -28848,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="Y292" s="30" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="293" spans="1:25" x14ac:dyDescent="0.2">
@@ -28925,7 +28932,7 @@
         <v>0</v>
       </c>
       <c r="Y293" s="30" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="294" spans="1:25" x14ac:dyDescent="0.2">
@@ -28935,8 +28942,8 @@
       <c r="B294" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C294" s="3" t="s">
-        <v>976</v>
+      <c r="C294" s="8">
+        <v>41822</v>
       </c>
       <c r="D294" s="3">
         <v>41822</v>
@@ -29002,7 +29009,7 @@
         <v>0</v>
       </c>
       <c r="Y294" s="30" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="295" spans="1:25" x14ac:dyDescent="0.2">
@@ -29079,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="Y295" s="30" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="296" spans="1:25" x14ac:dyDescent="0.2">
@@ -29156,7 +29163,7 @@
         <v>0</v>
       </c>
       <c r="Y296" s="30" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="297" spans="1:25" x14ac:dyDescent="0.2">
@@ -29233,7 +29240,7 @@
         <v>0</v>
       </c>
       <c r="Y297" s="30" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="298" spans="1:25" x14ac:dyDescent="0.2">
@@ -29310,7 +29317,7 @@
         <v>0</v>
       </c>
       <c r="Y298" s="30" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="299" spans="1:25" x14ac:dyDescent="0.2">
@@ -29387,7 +29394,7 @@
         <v>0</v>
       </c>
       <c r="Y299" s="30" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="300" spans="1:25" x14ac:dyDescent="0.2">
@@ -29464,7 +29471,7 @@
         <v>0</v>
       </c>
       <c r="Y300" s="30" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="301" spans="1:25" x14ac:dyDescent="0.2">
@@ -29541,7 +29548,7 @@
         <v>0</v>
       </c>
       <c r="Y301" s="30" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="302" spans="1:25" x14ac:dyDescent="0.2">
@@ -29551,8 +29558,8 @@
       <c r="B302" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C302" s="3" t="s">
-        <v>976</v>
+      <c r="C302" s="8">
+        <v>41822</v>
       </c>
       <c r="D302" s="3">
         <v>41822</v>
@@ -29618,7 +29625,7 @@
         <v>0</v>
       </c>
       <c r="Y302" s="30" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="303" spans="1:25" x14ac:dyDescent="0.2">
@@ -29695,7 +29702,7 @@
         <v>0</v>
       </c>
       <c r="Y303" s="30" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="304" spans="1:25" x14ac:dyDescent="0.2">
@@ -29772,7 +29779,7 @@
         <v>0</v>
       </c>
       <c r="Y304" s="30" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="305" spans="1:25" x14ac:dyDescent="0.2">
@@ -29849,7 +29856,7 @@
         <v>0</v>
       </c>
       <c r="Y305" s="30" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="306" spans="1:25" x14ac:dyDescent="0.2">
@@ -29926,7 +29933,7 @@
         <v>0</v>
       </c>
       <c r="Y306" s="30" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="307" spans="1:25" x14ac:dyDescent="0.2">
@@ -30003,7 +30010,7 @@
         <v>0</v>
       </c>
       <c r="Y307" s="30" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="308" spans="1:25" x14ac:dyDescent="0.2">
@@ -30080,7 +30087,7 @@
         <v>0</v>
       </c>
       <c r="Y308" s="30" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="309" spans="1:25" x14ac:dyDescent="0.2">
@@ -30157,7 +30164,7 @@
         <v>0</v>
       </c>
       <c r="Y309" s="30" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="310" spans="1:25" x14ac:dyDescent="0.2">
@@ -30234,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="Y310" s="30" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="311" spans="1:25" x14ac:dyDescent="0.2">
@@ -30311,7 +30318,7 @@
         <v>0</v>
       </c>
       <c r="Y311" s="30" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="312" spans="1:25" x14ac:dyDescent="0.2">
@@ -30388,7 +30395,7 @@
         <v>0</v>
       </c>
       <c r="Y312" s="30" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="313" spans="1:25" x14ac:dyDescent="0.2">
@@ -30465,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="Y313" s="30" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="314" spans="1:25" x14ac:dyDescent="0.2">
@@ -30542,7 +30549,7 @@
         <v>0</v>
       </c>
       <c r="Y314" s="30" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="315" spans="1:25" x14ac:dyDescent="0.2">
@@ -30619,7 +30626,7 @@
         <v>0</v>
       </c>
       <c r="Y315" s="30" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="316" spans="1:25" x14ac:dyDescent="0.2">
@@ -30696,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="Y316" s="30" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="317" spans="1:25" x14ac:dyDescent="0.2">
@@ -30773,7 +30780,7 @@
         <v>0</v>
       </c>
       <c r="Y317" s="30" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="318" spans="1:25" x14ac:dyDescent="0.2">
@@ -30850,7 +30857,7 @@
         <v>0</v>
       </c>
       <c r="Y318" s="30" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="319" spans="1:25" x14ac:dyDescent="0.2">
@@ -30927,7 +30934,7 @@
         <v>0</v>
       </c>
       <c r="Y319" s="30" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="320" spans="1:25" x14ac:dyDescent="0.2">
@@ -31004,7 +31011,7 @@
         <v>0</v>
       </c>
       <c r="Y320" s="30" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="321" spans="1:25" x14ac:dyDescent="0.2">
@@ -31081,7 +31088,7 @@
         <v>0</v>
       </c>
       <c r="Y321" s="30" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="322" spans="1:25" x14ac:dyDescent="0.2">
@@ -31158,7 +31165,7 @@
         <v>0</v>
       </c>
       <c r="Y322" s="30" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="323" spans="1:25" x14ac:dyDescent="0.2">
@@ -31235,7 +31242,7 @@
         <v>0</v>
       </c>
       <c r="Y323" s="30" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="324" spans="1:25" x14ac:dyDescent="0.2">
@@ -31312,7 +31319,7 @@
         <v>0</v>
       </c>
       <c r="Y324" s="30" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="325" spans="1:25" x14ac:dyDescent="0.2">
@@ -31389,7 +31396,7 @@
         <v>0</v>
       </c>
       <c r="Y325" s="30" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="326" spans="1:25" x14ac:dyDescent="0.2">
@@ -31466,7 +31473,7 @@
         <v>0</v>
       </c>
       <c r="Y326" s="30" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="327" spans="1:25" x14ac:dyDescent="0.2">
@@ -31543,7 +31550,7 @@
         <v>0</v>
       </c>
       <c r="Y327" s="30" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="328" spans="1:25" x14ac:dyDescent="0.2">
@@ -31620,7 +31627,7 @@
         <v>0</v>
       </c>
       <c r="Y328" s="30" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="329" spans="1:25" x14ac:dyDescent="0.2">
@@ -31697,7 +31704,7 @@
         <v>0</v>
       </c>
       <c r="Y329" s="30" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="330" spans="1:25" x14ac:dyDescent="0.2">
@@ -31774,7 +31781,7 @@
         <v>0</v>
       </c>
       <c r="Y330" s="30" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="331" spans="1:25" x14ac:dyDescent="0.2">
@@ -31851,7 +31858,7 @@
         <v>0</v>
       </c>
       <c r="Y331" s="30" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="332" spans="1:25" x14ac:dyDescent="0.2">
@@ -31928,7 +31935,7 @@
         <v>0</v>
       </c>
       <c r="Y332" s="30" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="333" spans="1:25" x14ac:dyDescent="0.2">
@@ -32005,7 +32012,7 @@
         <v>0</v>
       </c>
       <c r="Y333" s="30" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="334" spans="1:25" x14ac:dyDescent="0.2">
@@ -32082,7 +32089,7 @@
         <v>0</v>
       </c>
       <c r="Y334" s="30" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="335" spans="1:25" x14ac:dyDescent="0.2">
@@ -32159,7 +32166,7 @@
         <v>0</v>
       </c>
       <c r="Y335" s="30" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="336" spans="1:25" x14ac:dyDescent="0.2">
@@ -32236,7 +32243,7 @@
         <v>0</v>
       </c>
       <c r="Y336" s="30" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="337" spans="1:25" x14ac:dyDescent="0.2">
@@ -32313,7 +32320,7 @@
         <v>0</v>
       </c>
       <c r="Y337" s="30" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="338" spans="1:25" x14ac:dyDescent="0.2">
@@ -32390,7 +32397,7 @@
         <v>0</v>
       </c>
       <c r="Y338" s="30" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="339" spans="1:25" x14ac:dyDescent="0.2">
@@ -32467,7 +32474,7 @@
         <v>0</v>
       </c>
       <c r="Y339" s="30" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="340" spans="1:25" x14ac:dyDescent="0.2">
@@ -32544,7 +32551,7 @@
         <v>0</v>
       </c>
       <c r="Y340" s="30" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="341" spans="1:25" x14ac:dyDescent="0.2">
@@ -32621,7 +32628,7 @@
         <v>0</v>
       </c>
       <c r="Y341" s="30" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="342" spans="1:25" x14ac:dyDescent="0.2">
@@ -32698,7 +32705,7 @@
         <v>0</v>
       </c>
       <c r="Y342" s="30" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="343" spans="1:25" x14ac:dyDescent="0.2">
@@ -32775,7 +32782,7 @@
         <v>0</v>
       </c>
       <c r="Y343" s="30" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="344" spans="1:25" x14ac:dyDescent="0.2">
@@ -32852,7 +32859,7 @@
         <v>0</v>
       </c>
       <c r="Y344" s="30" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="345" spans="1:25" x14ac:dyDescent="0.2">
@@ -32929,7 +32936,7 @@
         <v>0</v>
       </c>
       <c r="Y345" s="30" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="346" spans="1:25" x14ac:dyDescent="0.2">
@@ -33006,7 +33013,7 @@
         <v>0</v>
       </c>
       <c r="Y346" s="30" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="347" spans="1:25" x14ac:dyDescent="0.2">
@@ -33083,7 +33090,7 @@
         <v>0</v>
       </c>
       <c r="Y347" s="30" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="348" spans="1:25" x14ac:dyDescent="0.2">
@@ -33160,7 +33167,7 @@
         <v>0</v>
       </c>
       <c r="Y348" s="30" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="349" spans="1:25" x14ac:dyDescent="0.2">
@@ -33237,7 +33244,7 @@
         <v>0</v>
       </c>
       <c r="Y349" s="30" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="350" spans="1:25" x14ac:dyDescent="0.2">
@@ -33314,7 +33321,7 @@
         <v>0</v>
       </c>
       <c r="Y350" s="30" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="351" spans="1:25" x14ac:dyDescent="0.2">
@@ -33391,7 +33398,7 @@
         <v>0</v>
       </c>
       <c r="Y351" s="30" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="352" spans="1:25" x14ac:dyDescent="0.2">
@@ -33468,7 +33475,7 @@
         <v>0</v>
       </c>
       <c r="Y352" s="30" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="353" spans="1:25" x14ac:dyDescent="0.2">
@@ -33545,7 +33552,7 @@
         <v>0</v>
       </c>
       <c r="Y353" s="30" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="354" spans="1:25" x14ac:dyDescent="0.2">
@@ -33622,7 +33629,7 @@
         <v>0</v>
       </c>
       <c r="Y354" s="30" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="355" spans="1:25" x14ac:dyDescent="0.2">
@@ -33699,7 +33706,7 @@
         <v>0</v>
       </c>
       <c r="Y355" s="30" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="356" spans="1:25" x14ac:dyDescent="0.2">
@@ -33776,7 +33783,7 @@
         <v>0</v>
       </c>
       <c r="Y356" s="30" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="357" spans="1:25" x14ac:dyDescent="0.2">
@@ -33853,7 +33860,7 @@
         <v>0</v>
       </c>
       <c r="Y357" s="30" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="358" spans="1:25" x14ac:dyDescent="0.2">
@@ -33930,7 +33937,7 @@
         <v>0</v>
       </c>
       <c r="Y358" s="30" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="359" spans="1:25" x14ac:dyDescent="0.2">
@@ -34007,7 +34014,7 @@
         <v>0</v>
       </c>
       <c r="Y359" s="30" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="360" spans="1:25" x14ac:dyDescent="0.2">
@@ -34084,7 +34091,7 @@
         <v>0</v>
       </c>
       <c r="Y360" s="30" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="361" spans="1:25" x14ac:dyDescent="0.2">
@@ -34161,7 +34168,7 @@
         <v>0</v>
       </c>
       <c r="Y361" s="30" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="362" spans="1:25" x14ac:dyDescent="0.2">
@@ -34238,7 +34245,7 @@
         <v>0</v>
       </c>
       <c r="Y362" s="30" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="363" spans="1:25" x14ac:dyDescent="0.2">
@@ -34315,7 +34322,7 @@
         <v>0</v>
       </c>
       <c r="Y363" s="30" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="364" spans="1:25" x14ac:dyDescent="0.2">
@@ -34392,7 +34399,7 @@
         <v>0</v>
       </c>
       <c r="Y364" s="30" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="365" spans="1:25" x14ac:dyDescent="0.2">
@@ -34469,7 +34476,7 @@
         <v>0</v>
       </c>
       <c r="Y365" s="30" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="366" spans="1:25" x14ac:dyDescent="0.2">
@@ -34546,7 +34553,7 @@
         <v>0</v>
       </c>
       <c r="Y366" s="30" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="367" spans="1:25" x14ac:dyDescent="0.2">
@@ -34623,7 +34630,7 @@
         <v>0</v>
       </c>
       <c r="Y367" s="30" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="368" spans="1:25" x14ac:dyDescent="0.2">
@@ -34700,7 +34707,7 @@
         <v>0</v>
       </c>
       <c r="Y368" s="30" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="369" spans="1:25" x14ac:dyDescent="0.2">
@@ -34777,7 +34784,7 @@
         <v>0</v>
       </c>
       <c r="Y369" s="30" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="370" spans="1:25" x14ac:dyDescent="0.2">
@@ -34854,7 +34861,7 @@
         <v>0</v>
       </c>
       <c r="Y370" s="30" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="371" spans="1:25" x14ac:dyDescent="0.2">
@@ -34931,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="Y371" s="30" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="372" spans="1:25" x14ac:dyDescent="0.2">
@@ -35008,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="Y372" s="30" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="373" spans="1:25" x14ac:dyDescent="0.2">
@@ -35085,7 +35092,7 @@
         <v>0</v>
       </c>
       <c r="Y373" s="30" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="374" spans="1:25" x14ac:dyDescent="0.2">
@@ -35162,7 +35169,7 @@
         <v>0</v>
       </c>
       <c r="Y374" s="30" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="375" spans="1:25" x14ac:dyDescent="0.2">
@@ -35239,7 +35246,7 @@
         <v>0</v>
       </c>
       <c r="Y375" s="30" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="376" spans="1:25" x14ac:dyDescent="0.2">
@@ -35316,7 +35323,7 @@
         <v>0</v>
       </c>
       <c r="Y376" s="30" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="377" spans="1:25" x14ac:dyDescent="0.2">
@@ -35393,7 +35400,7 @@
         <v>0</v>
       </c>
       <c r="Y377" s="30" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="378" spans="1:25" x14ac:dyDescent="0.2">
@@ -35470,7 +35477,7 @@
         <v>0</v>
       </c>
       <c r="Y378" s="30" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="379" spans="1:25" x14ac:dyDescent="0.2">
@@ -35547,7 +35554,7 @@
         <v>0</v>
       </c>
       <c r="Y379" s="30" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="380" spans="1:25" x14ac:dyDescent="0.2">
@@ -35624,7 +35631,7 @@
         <v>0</v>
       </c>
       <c r="Y380" s="30" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="381" spans="1:25" x14ac:dyDescent="0.2">
@@ -35701,7 +35708,7 @@
         <v>0</v>
       </c>
       <c r="Y381" s="30" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="382" spans="1:25" x14ac:dyDescent="0.2">
@@ -35778,7 +35785,7 @@
         <v>0</v>
       </c>
       <c r="Y382" s="30" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="383" spans="1:25" x14ac:dyDescent="0.2">
@@ -35855,7 +35862,7 @@
         <v>0</v>
       </c>
       <c r="Y383" s="30" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="384" spans="1:25" x14ac:dyDescent="0.2">
@@ -35932,7 +35939,7 @@
         <v>0</v>
       </c>
       <c r="Y384" s="30" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="385" spans="1:25" x14ac:dyDescent="0.2">
@@ -36009,7 +36016,7 @@
         <v>0</v>
       </c>
       <c r="Y385" s="30" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="386" spans="1:25" x14ac:dyDescent="0.2">
@@ -36086,7 +36093,7 @@
         <v>0</v>
       </c>
       <c r="Y386" s="30" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="387" spans="1:25" x14ac:dyDescent="0.2">
@@ -36163,7 +36170,7 @@
         <v>0</v>
       </c>
       <c r="Y387" s="30" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="388" spans="1:25" x14ac:dyDescent="0.2">
@@ -36240,7 +36247,7 @@
         <v>0</v>
       </c>
       <c r="Y388" s="30" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="389" spans="1:25" x14ac:dyDescent="0.2">
@@ -36317,7 +36324,7 @@
         <v>0</v>
       </c>
       <c r="Y389" s="30" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="390" spans="1:25" x14ac:dyDescent="0.2">
@@ -36394,7 +36401,7 @@
         <v>0</v>
       </c>
       <c r="Y390" s="30" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="391" spans="1:25" x14ac:dyDescent="0.2">
@@ -36471,7 +36478,7 @@
         <v>0</v>
       </c>
       <c r="Y391" s="30" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="392" spans="1:25" x14ac:dyDescent="0.2">
@@ -36548,7 +36555,7 @@
         <v>0</v>
       </c>
       <c r="Y392" s="30" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="393" spans="1:25" x14ac:dyDescent="0.2">
@@ -36625,7 +36632,7 @@
         <v>0</v>
       </c>
       <c r="Y393" s="30" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="394" spans="1:25" x14ac:dyDescent="0.2">
@@ -36702,7 +36709,7 @@
         <v>0</v>
       </c>
       <c r="Y394" s="30" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="395" spans="1:25" x14ac:dyDescent="0.2">
@@ -36779,7 +36786,7 @@
         <v>0</v>
       </c>
       <c r="Y395" s="30" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="396" spans="1:25" x14ac:dyDescent="0.2">
@@ -36856,7 +36863,7 @@
         <v>0</v>
       </c>
       <c r="Y396" s="30" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="397" spans="1:25" x14ac:dyDescent="0.2">
@@ -36933,7 +36940,7 @@
         <v>0</v>
       </c>
       <c r="Y397" s="30" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="398" spans="1:25" x14ac:dyDescent="0.2">
@@ -37010,7 +37017,7 @@
         <v>0</v>
       </c>
       <c r="Y398" s="30" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="399" spans="1:25" x14ac:dyDescent="0.2">
@@ -37087,7 +37094,7 @@
         <v>0</v>
       </c>
       <c r="Y399" s="30" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="400" spans="1:25" x14ac:dyDescent="0.2">
@@ -37164,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="Y400" s="30" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="401" spans="1:25" x14ac:dyDescent="0.2">
@@ -37241,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="Y401" s="30" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="402" spans="1:25" x14ac:dyDescent="0.2">
@@ -37318,7 +37325,7 @@
         <v>0</v>
       </c>
       <c r="Y402" s="30" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="403" spans="1:25" x14ac:dyDescent="0.2">
@@ -37395,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="Y403" s="30" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="404" spans="1:25" x14ac:dyDescent="0.2">
@@ -37472,7 +37479,7 @@
         <v>0</v>
       </c>
       <c r="Y404" s="30" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="405" spans="1:25" x14ac:dyDescent="0.2">
@@ -37549,7 +37556,7 @@
         <v>0</v>
       </c>
       <c r="Y405" s="30" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="406" spans="1:25" x14ac:dyDescent="0.2">
@@ -37626,7 +37633,7 @@
         <v>0</v>
       </c>
       <c r="Y406" s="30" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="407" spans="1:25" x14ac:dyDescent="0.2">
@@ -37703,7 +37710,7 @@
         <v>0</v>
       </c>
       <c r="Y407" s="30" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="408" spans="1:25" x14ac:dyDescent="0.2">
@@ -37780,7 +37787,7 @@
         <v>0</v>
       </c>
       <c r="Y408" s="30" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="409" spans="1:25" x14ac:dyDescent="0.2">
@@ -37857,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="Y409" s="30" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="410" spans="1:25" x14ac:dyDescent="0.2">
@@ -37934,7 +37941,7 @@
         <v>0</v>
       </c>
       <c r="Y410" s="30" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="411" spans="1:25" x14ac:dyDescent="0.2">
@@ -38011,7 +38018,7 @@
         <v>0</v>
       </c>
       <c r="Y411" s="30" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="412" spans="1:25" x14ac:dyDescent="0.2">
@@ -38088,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="Y412" s="30" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="413" spans="1:25" x14ac:dyDescent="0.2">
@@ -38165,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="Y413" s="30" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="414" spans="1:25" x14ac:dyDescent="0.2">
@@ -38242,7 +38249,7 @@
         <v>0</v>
       </c>
       <c r="Y414" s="30" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="415" spans="1:25" x14ac:dyDescent="0.2">
@@ -38319,7 +38326,7 @@
         <v>0</v>
       </c>
       <c r="Y415" s="30" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="416" spans="1:25" x14ac:dyDescent="0.2">
@@ -38396,7 +38403,7 @@
         <v>0</v>
       </c>
       <c r="Y416" s="30" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="417" spans="1:25" x14ac:dyDescent="0.2">
@@ -38473,7 +38480,7 @@
         <v>0</v>
       </c>
       <c r="Y417" s="30" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="418" spans="1:25" x14ac:dyDescent="0.2">
@@ -38550,7 +38557,7 @@
         <v>0</v>
       </c>
       <c r="Y418" s="30" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="419" spans="1:25" x14ac:dyDescent="0.2">
@@ -38627,7 +38634,7 @@
         <v>0</v>
       </c>
       <c r="Y419" s="30" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="420" spans="1:25" x14ac:dyDescent="0.2">
@@ -38704,12 +38711,12 @@
         <v>0</v>
       </c>
       <c r="Y420" s="30" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="421" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A421" s="12" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>36</v>
@@ -38781,7 +38788,7 @@
         <v>0</v>
       </c>
       <c r="Y421" s="30" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="422" spans="1:25" x14ac:dyDescent="0.2">
@@ -38858,7 +38865,7 @@
         <v>0</v>
       </c>
       <c r="Y422" s="30" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="423" spans="1:25" x14ac:dyDescent="0.2">
@@ -38935,7 +38942,7 @@
         <v>0</v>
       </c>
       <c r="Y423" s="30" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="424" spans="1:25" x14ac:dyDescent="0.2">
@@ -39012,7 +39019,7 @@
         <v>0</v>
       </c>
       <c r="Y424" s="30" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="425" spans="1:25" x14ac:dyDescent="0.2">
@@ -39089,7 +39096,7 @@
         <v>0</v>
       </c>
       <c r="Y425" s="30" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="426" spans="1:25" x14ac:dyDescent="0.2">
@@ -39166,7 +39173,7 @@
         <v>0</v>
       </c>
       <c r="Y426" s="30" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="427" spans="1:25" x14ac:dyDescent="0.2">
@@ -39243,7 +39250,7 @@
         <v>0</v>
       </c>
       <c r="Y427" s="30" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="428" spans="1:25" x14ac:dyDescent="0.2">
@@ -39320,7 +39327,7 @@
         <v>0</v>
       </c>
       <c r="Y428" s="30" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="429" spans="1:25" x14ac:dyDescent="0.2">
@@ -39397,7 +39404,7 @@
         <v>0</v>
       </c>
       <c r="Y429" s="30" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="430" spans="1:25" x14ac:dyDescent="0.2">
@@ -39474,7 +39481,7 @@
         <v>0</v>
       </c>
       <c r="Y430" s="30" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="431" spans="1:25" x14ac:dyDescent="0.2">
@@ -39551,7 +39558,7 @@
         <v>0</v>
       </c>
       <c r="Y431" s="30" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="432" spans="1:25" x14ac:dyDescent="0.2">
@@ -39628,7 +39635,7 @@
         <v>0</v>
       </c>
       <c r="Y432" s="30" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="433" spans="1:25" x14ac:dyDescent="0.2">
@@ -39705,7 +39712,7 @@
         <v>0</v>
       </c>
       <c r="Y433" s="30" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="434" spans="1:25" x14ac:dyDescent="0.2">
@@ -39782,7 +39789,7 @@
         <v>0</v>
       </c>
       <c r="Y434" s="30" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="435" spans="1:25" x14ac:dyDescent="0.2">
@@ -39859,7 +39866,7 @@
         <v>0</v>
       </c>
       <c r="Y435" s="30" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="436" spans="1:25" x14ac:dyDescent="0.2">
@@ -39936,7 +39943,7 @@
         <v>0</v>
       </c>
       <c r="Y436" s="30" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="437" spans="1:25" x14ac:dyDescent="0.2">
@@ -40013,7 +40020,7 @@
         <v>0</v>
       </c>
       <c r="Y437" s="30" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="438" spans="1:25" x14ac:dyDescent="0.2">
@@ -40090,7 +40097,7 @@
         <v>0</v>
       </c>
       <c r="Y438" s="30" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="439" spans="1:25" x14ac:dyDescent="0.2">
@@ -40167,7 +40174,7 @@
         <v>0</v>
       </c>
       <c r="Y439" s="30" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="440" spans="1:25" x14ac:dyDescent="0.2">
@@ -40244,7 +40251,7 @@
         <v>0</v>
       </c>
       <c r="Y440" s="30" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="441" spans="1:25" x14ac:dyDescent="0.2">
@@ -40321,7 +40328,7 @@
         <v>0</v>
       </c>
       <c r="Y441" s="30" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="442" spans="1:25" x14ac:dyDescent="0.2">
@@ -40398,7 +40405,7 @@
         <v>0</v>
       </c>
       <c r="Y442" s="30" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="443" spans="1:25" x14ac:dyDescent="0.2">
@@ -40475,7 +40482,7 @@
         <v>0</v>
       </c>
       <c r="Y443" s="30" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="444" spans="1:25" x14ac:dyDescent="0.2">
@@ -40552,7 +40559,7 @@
         <v>0</v>
       </c>
       <c r="Y444" s="30" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="445" spans="1:25" x14ac:dyDescent="0.2">
@@ -40629,7 +40636,7 @@
         <v>0</v>
       </c>
       <c r="Y445" s="30" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="446" spans="1:25" x14ac:dyDescent="0.2">
@@ -40706,7 +40713,7 @@
         <v>0</v>
       </c>
       <c r="Y446" s="30" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="447" spans="1:25" x14ac:dyDescent="0.2">
@@ -40783,7 +40790,7 @@
         <v>0</v>
       </c>
       <c r="Y447" s="30" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="448" spans="1:25" x14ac:dyDescent="0.2">
@@ -40860,7 +40867,7 @@
         <v>0</v>
       </c>
       <c r="Y448" s="30" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="449" spans="1:25" x14ac:dyDescent="0.2">
@@ -40937,7 +40944,7 @@
         <v>0</v>
       </c>
       <c r="Y449" s="30" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="450" spans="1:25" x14ac:dyDescent="0.2">
@@ -41014,7 +41021,7 @@
         <v>0</v>
       </c>
       <c r="Y450" s="30" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="451" spans="1:25" x14ac:dyDescent="0.2">
@@ -41091,7 +41098,7 @@
         <v>0</v>
       </c>
       <c r="Y451" s="30" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="452" spans="1:25" x14ac:dyDescent="0.2">
@@ -41168,7 +41175,7 @@
         <v>0</v>
       </c>
       <c r="Y452" s="30" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="453" spans="1:25" x14ac:dyDescent="0.2">
@@ -41245,7 +41252,7 @@
         <v>0</v>
       </c>
       <c r="Y453" s="30" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="454" spans="1:25" x14ac:dyDescent="0.2">
@@ -41322,7 +41329,7 @@
         <v>0</v>
       </c>
       <c r="Y454" s="30" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="455" spans="1:25" x14ac:dyDescent="0.2">
@@ -41399,7 +41406,7 @@
         <v>0</v>
       </c>
       <c r="Y455" s="30" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="456" spans="1:25" x14ac:dyDescent="0.2">
@@ -41476,7 +41483,7 @@
         <v>0</v>
       </c>
       <c r="Y456" s="30" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="457" spans="1:25" x14ac:dyDescent="0.2">
@@ -41553,7 +41560,7 @@
         <v>0</v>
       </c>
       <c r="Y457" s="30" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="458" spans="1:25" x14ac:dyDescent="0.2">
@@ -41630,7 +41637,7 @@
         <v>0</v>
       </c>
       <c r="Y458" s="30" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="459" spans="1:25" x14ac:dyDescent="0.2">
@@ -41707,7 +41714,7 @@
         <v>0</v>
       </c>
       <c r="Y459" s="30" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="460" spans="1:25" x14ac:dyDescent="0.2">
@@ -41784,7 +41791,7 @@
         <v>0</v>
       </c>
       <c r="Y460" s="30" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="461" spans="1:25" x14ac:dyDescent="0.2">
@@ -41861,7 +41868,7 @@
         <v>0</v>
       </c>
       <c r="Y461" s="30" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="462" spans="1:25" x14ac:dyDescent="0.2">
@@ -41938,7 +41945,7 @@
         <v>0</v>
       </c>
       <c r="Y462" s="30" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="463" spans="1:25" x14ac:dyDescent="0.2">
@@ -42015,7 +42022,7 @@
         <v>0</v>
       </c>
       <c r="Y463" s="30" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="464" spans="1:25" x14ac:dyDescent="0.2">
@@ -42092,7 +42099,7 @@
         <v>0</v>
       </c>
       <c r="Y464" s="30" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="465" spans="1:25" x14ac:dyDescent="0.2">
@@ -42169,7 +42176,7 @@
         <v>0</v>
       </c>
       <c r="Y465" s="30" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="466" spans="1:25" x14ac:dyDescent="0.2">
@@ -42246,7 +42253,7 @@
         <v>0</v>
       </c>
       <c r="Y466" s="30" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="467" spans="1:25" x14ac:dyDescent="0.2">
@@ -42323,7 +42330,7 @@
         <v>0</v>
       </c>
       <c r="Y467" s="30" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="468" spans="1:25" x14ac:dyDescent="0.2">
@@ -42400,7 +42407,7 @@
         <v>0</v>
       </c>
       <c r="Y468" s="30" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="469" spans="1:25" x14ac:dyDescent="0.2">
@@ -42477,7 +42484,7 @@
         <v>0</v>
       </c>
       <c r="Y469" s="30" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="470" spans="1:25" x14ac:dyDescent="0.2">
@@ -42554,7 +42561,7 @@
         <v>0</v>
       </c>
       <c r="Y470" s="30" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="471" spans="1:25" x14ac:dyDescent="0.2">
@@ -42631,7 +42638,7 @@
         <v>0</v>
       </c>
       <c r="Y471" s="30" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="472" spans="1:25" x14ac:dyDescent="0.2">
@@ -42708,7 +42715,7 @@
         <v>0</v>
       </c>
       <c r="Y472" s="30" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="473" spans="1:25" x14ac:dyDescent="0.2">
@@ -42785,7 +42792,7 @@
         <v>0</v>
       </c>
       <c r="Y473" s="30" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="474" spans="1:25" x14ac:dyDescent="0.2">
@@ -42862,7 +42869,7 @@
         <v>0</v>
       </c>
       <c r="Y474" s="30" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="475" spans="1:25" x14ac:dyDescent="0.2">
@@ -42939,7 +42946,7 @@
         <v>0</v>
       </c>
       <c r="Y475" s="30" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="476" spans="1:25" x14ac:dyDescent="0.2">
@@ -43016,7 +43023,7 @@
         <v>0</v>
       </c>
       <c r="Y476" s="30" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="477" spans="1:25" x14ac:dyDescent="0.2">
@@ -43093,7 +43100,7 @@
         <v>0</v>
       </c>
       <c r="Y477" s="30" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="478" spans="1:25" x14ac:dyDescent="0.2">
@@ -43170,7 +43177,7 @@
         <v>0</v>
       </c>
       <c r="Y478" s="30" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="479" spans="1:25" x14ac:dyDescent="0.2">
@@ -43247,7 +43254,7 @@
         <v>0</v>
       </c>
       <c r="Y479" s="30" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="480" spans="1:25" x14ac:dyDescent="0.2">
@@ -43324,7 +43331,7 @@
         <v>0</v>
       </c>
       <c r="Y480" s="30" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="481" spans="1:25" x14ac:dyDescent="0.2">
@@ -43401,7 +43408,7 @@
         <v>0</v>
       </c>
       <c r="Y481" s="30" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="482" spans="1:25" x14ac:dyDescent="0.2">
@@ -43478,7 +43485,7 @@
         <v>0</v>
       </c>
       <c r="Y482" s="30" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="483" spans="1:25" x14ac:dyDescent="0.2">
@@ -43555,7 +43562,7 @@
         <v>0</v>
       </c>
       <c r="Y483" s="30" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="484" spans="1:25" x14ac:dyDescent="0.2">
@@ -43632,7 +43639,7 @@
         <v>0</v>
       </c>
       <c r="Y484" s="30" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="485" spans="1:25" x14ac:dyDescent="0.2">
@@ -43709,7 +43716,7 @@
         <v>0</v>
       </c>
       <c r="Y485" s="30" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="486" spans="1:25" x14ac:dyDescent="0.2">
@@ -43786,7 +43793,7 @@
         <v>0</v>
       </c>
       <c r="Y486" s="30" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="487" spans="1:25" x14ac:dyDescent="0.2">
@@ -43863,7 +43870,7 @@
         <v>0</v>
       </c>
       <c r="Y487" s="30" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="488" spans="1:25" x14ac:dyDescent="0.2">
@@ -43940,7 +43947,7 @@
         <v>0</v>
       </c>
       <c r="Y488" s="30" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="489" spans="1:25" x14ac:dyDescent="0.2">
@@ -44017,7 +44024,7 @@
         <v>0</v>
       </c>
       <c r="Y489" s="30" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="490" spans="1:25" x14ac:dyDescent="0.2">
@@ -44094,7 +44101,7 @@
         <v>0</v>
       </c>
       <c r="Y490" s="30" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="491" spans="1:25" x14ac:dyDescent="0.2">
@@ -44171,7 +44178,7 @@
         <v>0</v>
       </c>
       <c r="Y491" s="30" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="492" spans="1:25" x14ac:dyDescent="0.2">
@@ -44248,7 +44255,7 @@
         <v>0</v>
       </c>
       <c r="Y492" s="30" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="493" spans="1:25" x14ac:dyDescent="0.2">
@@ -44325,7 +44332,7 @@
         <v>0</v>
       </c>
       <c r="Y493" s="30" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="494" spans="1:25" x14ac:dyDescent="0.2">
@@ -44402,7 +44409,7 @@
         <v>0</v>
       </c>
       <c r="Y494" s="30" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="495" spans="1:25" x14ac:dyDescent="0.2">
@@ -44479,7 +44486,7 @@
         <v>0</v>
       </c>
       <c r="Y495" s="30" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="496" spans="1:25" x14ac:dyDescent="0.2">
@@ -44556,7 +44563,7 @@
         <v>0</v>
       </c>
       <c r="Y496" s="30" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="497" spans="1:25" x14ac:dyDescent="0.2">
@@ -44633,7 +44640,7 @@
         <v>0</v>
       </c>
       <c r="Y497" s="30" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="498" spans="1:25" x14ac:dyDescent="0.2">
@@ -44710,7 +44717,7 @@
         <v>0</v>
       </c>
       <c r="Y498" s="30" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="499" spans="1:25" x14ac:dyDescent="0.2">
@@ -44787,7 +44794,7 @@
         <v>0</v>
       </c>
       <c r="Y499" s="30" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="500" spans="1:25" x14ac:dyDescent="0.2">
@@ -44864,7 +44871,7 @@
         <v>0</v>
       </c>
       <c r="Y500" s="30" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="501" spans="1:25" x14ac:dyDescent="0.2">
@@ -44941,7 +44948,7 @@
         <v>0</v>
       </c>
       <c r="Y501" s="30" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="502" spans="1:25" x14ac:dyDescent="0.2">
@@ -45018,7 +45025,7 @@
         <v>0</v>
       </c>
       <c r="Y502" s="30" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="503" spans="1:25" x14ac:dyDescent="0.2">
@@ -45095,7 +45102,7 @@
         <v>0</v>
       </c>
       <c r="Y503" s="30" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="504" spans="1:25" x14ac:dyDescent="0.2">
@@ -45172,7 +45179,7 @@
         <v>0</v>
       </c>
       <c r="Y504" s="30" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="505" spans="1:25" x14ac:dyDescent="0.2">
@@ -45249,7 +45256,7 @@
         <v>0</v>
       </c>
       <c r="Y505" s="30" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="506" spans="1:25" x14ac:dyDescent="0.2">
@@ -45326,7 +45333,7 @@
         <v>0</v>
       </c>
       <c r="Y506" s="30" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="507" spans="1:25" x14ac:dyDescent="0.2">
@@ -45403,7 +45410,7 @@
         <v>0</v>
       </c>
       <c r="Y507" s="30" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="508" spans="1:25" x14ac:dyDescent="0.2">
@@ -45480,7 +45487,7 @@
         <v>0</v>
       </c>
       <c r="Y508" s="30" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="509" spans="1:25" x14ac:dyDescent="0.2">
@@ -45557,7 +45564,7 @@
         <v>0</v>
       </c>
       <c r="Y509" s="30" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="510" spans="1:25" x14ac:dyDescent="0.2">
@@ -45634,7 +45641,7 @@
         <v>0</v>
       </c>
       <c r="Y510" s="30" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="511" spans="1:25" x14ac:dyDescent="0.2">
@@ -45711,7 +45718,7 @@
         <v>0</v>
       </c>
       <c r="Y511" s="30" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="512" spans="1:25" x14ac:dyDescent="0.2">
@@ -45788,7 +45795,7 @@
         <v>0</v>
       </c>
       <c r="Y512" s="30" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="513" spans="1:25" x14ac:dyDescent="0.2">
@@ -45865,7 +45872,7 @@
         <v>0</v>
       </c>
       <c r="Y513" s="30" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="514" spans="1:25" x14ac:dyDescent="0.2">
@@ -45942,7 +45949,7 @@
         <v>0</v>
       </c>
       <c r="Y514" s="30" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="515" spans="1:25" x14ac:dyDescent="0.2">
@@ -46019,7 +46026,7 @@
         <v>0</v>
       </c>
       <c r="Y515" s="30" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="516" spans="1:25" x14ac:dyDescent="0.2">
@@ -46096,7 +46103,7 @@
         <v>0</v>
       </c>
       <c r="Y516" s="30" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="517" spans="1:25" x14ac:dyDescent="0.2">
@@ -46173,7 +46180,7 @@
         <v>0</v>
       </c>
       <c r="Y517" s="30" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="518" spans="1:25" x14ac:dyDescent="0.2">
@@ -46250,7 +46257,7 @@
         <v>0</v>
       </c>
       <c r="Y518" s="30" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="519" spans="1:25" x14ac:dyDescent="0.2">
@@ -46327,7 +46334,7 @@
         <v>0</v>
       </c>
       <c r="Y519" s="30" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="520" spans="1:25" x14ac:dyDescent="0.2">
@@ -46404,7 +46411,7 @@
         <v>0</v>
       </c>
       <c r="Y520" s="30" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="521" spans="1:25" x14ac:dyDescent="0.2">
@@ -46481,7 +46488,7 @@
         <v>0</v>
       </c>
       <c r="Y521" s="30" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="522" spans="1:25" x14ac:dyDescent="0.2">
@@ -46558,7 +46565,7 @@
         <v>0</v>
       </c>
       <c r="Y522" s="30" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="523" spans="1:25" x14ac:dyDescent="0.2">
@@ -46635,7 +46642,7 @@
         <v>0</v>
       </c>
       <c r="Y523" s="30" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="524" spans="1:25" x14ac:dyDescent="0.2">
@@ -46712,7 +46719,7 @@
         <v>0</v>
       </c>
       <c r="Y524" s="30" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="525" spans="1:25" x14ac:dyDescent="0.2">
@@ -46789,7 +46796,7 @@
         <v>0</v>
       </c>
       <c r="Y525" s="30" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="526" spans="1:25" x14ac:dyDescent="0.2">
@@ -46866,7 +46873,7 @@
         <v>0</v>
       </c>
       <c r="Y526" s="30" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="527" spans="1:25" x14ac:dyDescent="0.2">
@@ -46943,7 +46950,7 @@
         <v>0</v>
       </c>
       <c r="Y527" s="30" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="528" spans="1:25" x14ac:dyDescent="0.2">
@@ -47020,7 +47027,7 @@
         <v>0</v>
       </c>
       <c r="Y528" s="30" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="529" spans="1:25" x14ac:dyDescent="0.2">
@@ -47097,7 +47104,7 @@
         <v>0</v>
       </c>
       <c r="Y529" s="30" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="530" spans="1:25" x14ac:dyDescent="0.2">
@@ -47174,7 +47181,7 @@
         <v>0</v>
       </c>
       <c r="Y530" s="30" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="531" spans="1:25" x14ac:dyDescent="0.2">
@@ -47251,7 +47258,7 @@
         <v>0</v>
       </c>
       <c r="Y531" s="30" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="532" spans="1:25" x14ac:dyDescent="0.2">
@@ -47328,7 +47335,7 @@
         <v>0</v>
       </c>
       <c r="Y532" s="30" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="533" spans="1:25" x14ac:dyDescent="0.2">
@@ -47405,7 +47412,7 @@
         <v>0</v>
       </c>
       <c r="Y533" s="30" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="534" spans="1:25" x14ac:dyDescent="0.2">
@@ -47482,7 +47489,7 @@
         <v>0</v>
       </c>
       <c r="Y534" s="30" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="535" spans="1:25" x14ac:dyDescent="0.2">
@@ -47559,7 +47566,7 @@
         <v>0</v>
       </c>
       <c r="Y535" s="30" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="536" spans="1:25" x14ac:dyDescent="0.2">
@@ -47636,7 +47643,7 @@
         <v>0</v>
       </c>
       <c r="Y536" s="30" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="537" spans="1:25" x14ac:dyDescent="0.2">
@@ -47713,7 +47720,7 @@
         <v>0</v>
       </c>
       <c r="Y537" s="30" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="538" spans="1:25" x14ac:dyDescent="0.2">
@@ -47790,7 +47797,7 @@
         <v>0</v>
       </c>
       <c r="Y538" s="30" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="539" spans="1:25" x14ac:dyDescent="0.2">
@@ -47867,7 +47874,7 @@
         <v>0</v>
       </c>
       <c r="Y539" s="30" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="540" spans="1:25" x14ac:dyDescent="0.2">
@@ -47944,7 +47951,7 @@
         <v>0</v>
       </c>
       <c r="Y540" s="30" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="541" spans="1:25" x14ac:dyDescent="0.2">
@@ -48021,7 +48028,7 @@
         <v>0</v>
       </c>
       <c r="Y541" s="30" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="542" spans="1:25" x14ac:dyDescent="0.2">
@@ -48098,7 +48105,7 @@
         <v>0</v>
       </c>
       <c r="Y542" s="30" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="543" spans="1:25" x14ac:dyDescent="0.2">
@@ -48175,7 +48182,7 @@
         <v>0</v>
       </c>
       <c r="Y543" s="30" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="544" spans="1:25" x14ac:dyDescent="0.2">
@@ -48252,7 +48259,7 @@
         <v>0</v>
       </c>
       <c r="Y544" s="30" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="545" spans="1:25" x14ac:dyDescent="0.2">
@@ -48329,7 +48336,7 @@
         <v>0</v>
       </c>
       <c r="Y545" s="30" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="546" spans="1:25" x14ac:dyDescent="0.2">
@@ -48406,7 +48413,7 @@
         <v>0</v>
       </c>
       <c r="Y546" s="30" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="547" spans="1:25" x14ac:dyDescent="0.2">
@@ -48483,7 +48490,7 @@
         <v>0</v>
       </c>
       <c r="Y547" s="30" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="548" spans="1:25" x14ac:dyDescent="0.2">
@@ -48560,7 +48567,7 @@
         <v>0</v>
       </c>
       <c r="Y548" s="30" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="549" spans="1:25" x14ac:dyDescent="0.2">
@@ -48637,7 +48644,7 @@
         <v>0</v>
       </c>
       <c r="Y549" s="30" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="550" spans="1:25" x14ac:dyDescent="0.2">
@@ -48714,7 +48721,7 @@
         <v>0</v>
       </c>
       <c r="Y550" s="30" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="551" spans="1:25" x14ac:dyDescent="0.2">
@@ -48791,7 +48798,7 @@
         <v>0</v>
       </c>
       <c r="Y551" s="30" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="552" spans="1:25" x14ac:dyDescent="0.2">
@@ -48868,7 +48875,7 @@
         <v>0</v>
       </c>
       <c r="Y552" s="30" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="553" spans="1:25" x14ac:dyDescent="0.2">
@@ -48945,7 +48952,7 @@
         <v>0</v>
       </c>
       <c r="Y553" s="30" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="554" spans="1:25" x14ac:dyDescent="0.2">
@@ -49022,7 +49029,7 @@
         <v>0</v>
       </c>
       <c r="Y554" s="30" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="555" spans="1:25" x14ac:dyDescent="0.2">
@@ -49099,7 +49106,7 @@
         <v>0</v>
       </c>
       <c r="Y555" s="30" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="556" spans="1:25" x14ac:dyDescent="0.2">
@@ -49176,7 +49183,7 @@
         <v>0</v>
       </c>
       <c r="Y556" s="30" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="557" spans="1:25" x14ac:dyDescent="0.2">
@@ -49253,7 +49260,7 @@
         <v>0</v>
       </c>
       <c r="Y557" s="30" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="558" spans="1:25" x14ac:dyDescent="0.2">
@@ -49330,7 +49337,7 @@
         <v>0</v>
       </c>
       <c r="Y558" s="30" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="559" spans="1:25" x14ac:dyDescent="0.2">
@@ -49407,7 +49414,7 @@
         <v>0</v>
       </c>
       <c r="Y559" s="30" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="560" spans="1:25" x14ac:dyDescent="0.2">
@@ -49484,7 +49491,7 @@
         <v>0</v>
       </c>
       <c r="Y560" s="30" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="561" spans="1:25" x14ac:dyDescent="0.2">
@@ -49561,7 +49568,7 @@
         <v>0</v>
       </c>
       <c r="Y561" s="30" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="562" spans="1:25" x14ac:dyDescent="0.2">
@@ -49638,7 +49645,7 @@
         <v>0</v>
       </c>
       <c r="Y562" s="30" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="563" spans="1:25" x14ac:dyDescent="0.2">
@@ -49715,7 +49722,7 @@
         <v>0</v>
       </c>
       <c r="Y563" s="30" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="564" spans="1:25" x14ac:dyDescent="0.2">
@@ -49792,7 +49799,7 @@
         <v>0</v>
       </c>
       <c r="Y564" s="30" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="565" spans="1:25" x14ac:dyDescent="0.2">
@@ -49869,7 +49876,7 @@
         <v>0</v>
       </c>
       <c r="Y565" s="30" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="566" spans="1:25" x14ac:dyDescent="0.2">
@@ -49946,12 +49953,12 @@
         <v>0</v>
       </c>
       <c r="Y566" s="30" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="567" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B567" s="2" t="s">
         <v>41</v>
@@ -50023,7 +50030,7 @@
         <v>0</v>
       </c>
       <c r="Y567" s="30" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="568" spans="1:25" x14ac:dyDescent="0.2">
@@ -50100,7 +50107,7 @@
         <v>0</v>
       </c>
       <c r="Y568" s="30" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="569" spans="1:25" x14ac:dyDescent="0.2">
@@ -50177,7 +50184,7 @@
         <v>0</v>
       </c>
       <c r="Y569" s="30" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="570" spans="1:25" x14ac:dyDescent="0.2">
@@ -50254,7 +50261,7 @@
         <v>0</v>
       </c>
       <c r="Y570" s="30" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="571" spans="1:25" x14ac:dyDescent="0.2">
@@ -50331,7 +50338,7 @@
         <v>0</v>
       </c>
       <c r="Y571" s="30" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="572" spans="1:25" x14ac:dyDescent="0.2">
@@ -50408,7 +50415,7 @@
         <v>0</v>
       </c>
       <c r="Y572" s="30" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="573" spans="1:25" x14ac:dyDescent="0.2">
@@ -50485,7 +50492,7 @@
         <v>0</v>
       </c>
       <c r="Y573" s="30" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="574" spans="1:25" x14ac:dyDescent="0.2">
@@ -50562,7 +50569,7 @@
         <v>0</v>
       </c>
       <c r="Y574" s="30" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="575" spans="1:25" x14ac:dyDescent="0.2">
@@ -50639,7 +50646,7 @@
         <v>0</v>
       </c>
       <c r="Y575" s="30" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="576" spans="1:25" x14ac:dyDescent="0.2">
@@ -50716,7 +50723,7 @@
         <v>0</v>
       </c>
       <c r="Y576" s="30" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="577" spans="1:25" x14ac:dyDescent="0.2">
@@ -50793,7 +50800,7 @@
         <v>0</v>
       </c>
       <c r="Y577" s="30" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="578" spans="1:25" x14ac:dyDescent="0.2">
@@ -50870,7 +50877,7 @@
         <v>0</v>
       </c>
       <c r="Y578" s="30" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="579" spans="1:25" x14ac:dyDescent="0.2">
@@ -50947,7 +50954,7 @@
         <v>0</v>
       </c>
       <c r="Y579" s="30" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="580" spans="1:25" x14ac:dyDescent="0.2">
@@ -51024,7 +51031,7 @@
         <v>0</v>
       </c>
       <c r="Y580" s="30" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="581" spans="1:25" x14ac:dyDescent="0.2">
@@ -51101,7 +51108,7 @@
         <v>0</v>
       </c>
       <c r="Y581" s="30" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="582" spans="1:25" x14ac:dyDescent="0.2">
@@ -51178,7 +51185,7 @@
         <v>0</v>
       </c>
       <c r="Y582" s="30" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="583" spans="1:25" x14ac:dyDescent="0.2">
@@ -51255,7 +51262,7 @@
         <v>0</v>
       </c>
       <c r="Y583" s="30" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="584" spans="1:25" x14ac:dyDescent="0.2">
@@ -51332,7 +51339,7 @@
         <v>0</v>
       </c>
       <c r="Y584" s="30" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="585" spans="1:25" x14ac:dyDescent="0.2">
@@ -51409,7 +51416,7 @@
         <v>0</v>
       </c>
       <c r="Y585" s="30" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="586" spans="1:25" x14ac:dyDescent="0.2">
@@ -51486,7 +51493,7 @@
         <v>0</v>
       </c>
       <c r="Y586" s="30" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="587" spans="1:25" x14ac:dyDescent="0.2">
@@ -51563,7 +51570,7 @@
         <v>0</v>
       </c>
       <c r="Y587" s="30" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="588" spans="1:25" x14ac:dyDescent="0.2">
@@ -51640,7 +51647,7 @@
         <v>0</v>
       </c>
       <c r="Y588" s="30" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="589" spans="1:25" x14ac:dyDescent="0.2">
@@ -51717,7 +51724,7 @@
         <v>0</v>
       </c>
       <c r="Y589" s="30" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="590" spans="1:25" x14ac:dyDescent="0.2">
@@ -51794,7 +51801,7 @@
         <v>0</v>
       </c>
       <c r="Y590" s="30" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="591" spans="1:25" x14ac:dyDescent="0.2">
@@ -51871,7 +51878,7 @@
         <v>0</v>
       </c>
       <c r="Y591" s="30" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="592" spans="1:25" x14ac:dyDescent="0.2">
@@ -51948,7 +51955,7 @@
         <v>0</v>
       </c>
       <c r="Y592" s="30" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="593" spans="1:25" x14ac:dyDescent="0.2">
@@ -52025,7 +52032,7 @@
         <v>0</v>
       </c>
       <c r="Y593" s="30" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="594" spans="1:25" x14ac:dyDescent="0.2">
@@ -52102,7 +52109,7 @@
         <v>0</v>
       </c>
       <c r="Y594" s="30" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="595" spans="1:25" x14ac:dyDescent="0.2">
@@ -52179,7 +52186,7 @@
         <v>0</v>
       </c>
       <c r="Y595" s="30" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="596" spans="1:25" x14ac:dyDescent="0.2">
@@ -52256,7 +52263,7 @@
         <v>0</v>
       </c>
       <c r="Y596" s="30" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="597" spans="1:25" x14ac:dyDescent="0.2">
@@ -52333,7 +52340,7 @@
         <v>0</v>
       </c>
       <c r="Y597" s="30" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="598" spans="1:25" x14ac:dyDescent="0.2">
@@ -52410,7 +52417,7 @@
         <v>0</v>
       </c>
       <c r="Y598" s="30" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="599" spans="1:25" x14ac:dyDescent="0.2">
@@ -52487,7 +52494,7 @@
         <v>0</v>
       </c>
       <c r="Y599" s="30" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="600" spans="1:25" x14ac:dyDescent="0.2">
@@ -52564,7 +52571,7 @@
         <v>0</v>
       </c>
       <c r="Y600" s="30" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="601" spans="1:25" x14ac:dyDescent="0.2">
@@ -52641,7 +52648,7 @@
         <v>0</v>
       </c>
       <c r="Y601" s="30" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="602" spans="1:25" x14ac:dyDescent="0.2">
@@ -52718,7 +52725,7 @@
         <v>0</v>
       </c>
       <c r="Y602" s="30" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="603" spans="1:25" x14ac:dyDescent="0.2">
@@ -52795,7 +52802,7 @@
         <v>0</v>
       </c>
       <c r="Y603" s="30" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="604" spans="1:25" x14ac:dyDescent="0.2">
@@ -52872,7 +52879,7 @@
         <v>0</v>
       </c>
       <c r="Y604" s="30" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="605" spans="1:25" x14ac:dyDescent="0.2">
@@ -52949,7 +52956,7 @@
         <v>0</v>
       </c>
       <c r="Y605" s="30" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="606" spans="1:25" x14ac:dyDescent="0.2">
@@ -53026,7 +53033,7 @@
         <v>0</v>
       </c>
       <c r="Y606" s="30" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="607" spans="1:25" x14ac:dyDescent="0.2">
@@ -53103,7 +53110,7 @@
         <v>0</v>
       </c>
       <c r="Y607" s="30" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="608" spans="1:25" x14ac:dyDescent="0.2">
@@ -53180,7 +53187,7 @@
         <v>0</v>
       </c>
       <c r="Y608" s="30" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="609" spans="1:25" x14ac:dyDescent="0.2">
@@ -53257,7 +53264,7 @@
         <v>0</v>
       </c>
       <c r="Y609" s="30" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="610" spans="1:25" x14ac:dyDescent="0.2">
@@ -53334,7 +53341,7 @@
         <v>0</v>
       </c>
       <c r="Y610" s="30" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="611" spans="1:25" x14ac:dyDescent="0.2">
@@ -53411,7 +53418,7 @@
         <v>0</v>
       </c>
       <c r="Y611" s="30" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="612" spans="1:25" x14ac:dyDescent="0.2">
@@ -53488,7 +53495,7 @@
         <v>0</v>
       </c>
       <c r="Y612" s="30" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="613" spans="1:25" x14ac:dyDescent="0.2">
@@ -53565,7 +53572,7 @@
         <v>0</v>
       </c>
       <c r="Y613" s="30" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="614" spans="1:25" x14ac:dyDescent="0.2">
@@ -53642,7 +53649,7 @@
         <v>0</v>
       </c>
       <c r="Y614" s="30" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="615" spans="1:25" x14ac:dyDescent="0.2">
@@ -53719,7 +53726,7 @@
         <v>0</v>
       </c>
       <c r="Y615" s="30" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="616" spans="1:25" x14ac:dyDescent="0.2">
@@ -53796,7 +53803,7 @@
         <v>0</v>
       </c>
       <c r="Y616" s="30" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="617" spans="1:25" x14ac:dyDescent="0.2">
@@ -53873,7 +53880,7 @@
         <v>0</v>
       </c>
       <c r="Y617" s="30" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="618" spans="1:25" x14ac:dyDescent="0.2">
@@ -53950,7 +53957,7 @@
         <v>0</v>
       </c>
       <c r="Y618" s="30" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="619" spans="1:25" x14ac:dyDescent="0.2">
@@ -54027,7 +54034,7 @@
         <v>0</v>
       </c>
       <c r="Y619" s="30" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="620" spans="1:25" x14ac:dyDescent="0.2">
@@ -54104,7 +54111,7 @@
         <v>0</v>
       </c>
       <c r="Y620" s="30" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="621" spans="1:25" x14ac:dyDescent="0.2">
@@ -54181,7 +54188,7 @@
         <v>0</v>
       </c>
       <c r="Y621" s="30" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="622" spans="1:25" x14ac:dyDescent="0.2">
@@ -54258,7 +54265,7 @@
         <v>0</v>
       </c>
       <c r="Y622" s="30" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="623" spans="1:25" x14ac:dyDescent="0.2">
@@ -54335,7 +54342,7 @@
         <v>0</v>
       </c>
       <c r="Y623" s="30" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="624" spans="1:25" x14ac:dyDescent="0.2">
@@ -54412,7 +54419,7 @@
         <v>0</v>
       </c>
       <c r="Y624" s="30" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="625" spans="1:25" x14ac:dyDescent="0.2">
@@ -54489,7 +54496,7 @@
         <v>0</v>
       </c>
       <c r="Y625" s="30" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="626" spans="1:25" x14ac:dyDescent="0.2">
@@ -54566,7 +54573,7 @@
         <v>0</v>
       </c>
       <c r="Y626" s="30" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="627" spans="1:25" x14ac:dyDescent="0.2">
@@ -54643,7 +54650,7 @@
         <v>0</v>
       </c>
       <c r="Y627" s="30" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="628" spans="1:25" x14ac:dyDescent="0.2">
@@ -54720,7 +54727,7 @@
         <v>0</v>
       </c>
       <c r="Y628" s="30" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="629" spans="1:25" x14ac:dyDescent="0.2">
@@ -54797,7 +54804,7 @@
         <v>0</v>
       </c>
       <c r="Y629" s="30" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="630" spans="1:25" x14ac:dyDescent="0.2">
@@ -54874,7 +54881,7 @@
         <v>0</v>
       </c>
       <c r="Y630" s="30" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="631" spans="1:25" x14ac:dyDescent="0.2">
@@ -54951,7 +54958,7 @@
         <v>0</v>
       </c>
       <c r="Y631" s="30" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="632" spans="1:25" x14ac:dyDescent="0.2">
@@ -55028,7 +55035,7 @@
         <v>0</v>
       </c>
       <c r="Y632" s="30" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="633" spans="1:25" x14ac:dyDescent="0.2">
@@ -55105,7 +55112,7 @@
         <v>0</v>
       </c>
       <c r="Y633" s="30" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="634" spans="1:25" x14ac:dyDescent="0.2">
@@ -55182,7 +55189,7 @@
         <v>0</v>
       </c>
       <c r="Y634" s="30" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="635" spans="1:25" x14ac:dyDescent="0.2">
@@ -55259,7 +55266,7 @@
         <v>0</v>
       </c>
       <c r="Y635" s="30" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="636" spans="1:25" x14ac:dyDescent="0.2">
@@ -55336,7 +55343,7 @@
         <v>0</v>
       </c>
       <c r="Y636" s="30" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="637" spans="1:25" x14ac:dyDescent="0.2">
@@ -55413,7 +55420,7 @@
         <v>0</v>
       </c>
       <c r="Y637" s="30" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="638" spans="1:25" x14ac:dyDescent="0.2">
@@ -55490,7 +55497,7 @@
         <v>0</v>
       </c>
       <c r="Y638" s="30" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="639" spans="1:25" x14ac:dyDescent="0.2">
@@ -55567,7 +55574,7 @@
         <v>0</v>
       </c>
       <c r="Y639" s="30" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="640" spans="1:25" x14ac:dyDescent="0.2">
@@ -55644,7 +55651,7 @@
         <v>0</v>
       </c>
       <c r="Y640" s="30" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="641" spans="1:25" x14ac:dyDescent="0.2">
@@ -55721,7 +55728,7 @@
         <v>0</v>
       </c>
       <c r="Y641" s="30" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="642" spans="1:25" x14ac:dyDescent="0.2">
@@ -55798,7 +55805,7 @@
         <v>0</v>
       </c>
       <c r="Y642" s="30" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="643" spans="1:25" x14ac:dyDescent="0.2">
@@ -55875,7 +55882,7 @@
         <v>0</v>
       </c>
       <c r="Y643" s="30" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="644" spans="1:25" x14ac:dyDescent="0.2">
@@ -55952,7 +55959,7 @@
         <v>0</v>
       </c>
       <c r="Y644" s="30" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="645" spans="1:25" x14ac:dyDescent="0.2">
@@ -56029,7 +56036,7 @@
         <v>0</v>
       </c>
       <c r="Y645" s="30" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="646" spans="1:25" x14ac:dyDescent="0.2">
@@ -56106,7 +56113,7 @@
         <v>0</v>
       </c>
       <c r="Y646" s="30" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="647" spans="1:25" x14ac:dyDescent="0.2">
@@ -56183,7 +56190,7 @@
         <v>0</v>
       </c>
       <c r="Y647" s="30" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="648" spans="1:25" x14ac:dyDescent="0.2">
@@ -56260,7 +56267,7 @@
         <v>0</v>
       </c>
       <c r="Y648" s="30" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="649" spans="1:25" x14ac:dyDescent="0.2">
@@ -56337,7 +56344,7 @@
         <v>0</v>
       </c>
       <c r="Y649" s="30" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="650" spans="1:25" x14ac:dyDescent="0.2">
@@ -56414,7 +56421,7 @@
         <v>0</v>
       </c>
       <c r="Y650" s="30" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="651" spans="1:25" x14ac:dyDescent="0.2">
@@ -56491,7 +56498,7 @@
         <v>0</v>
       </c>
       <c r="Y651" s="30" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="652" spans="1:25" x14ac:dyDescent="0.2">
@@ -56568,7 +56575,7 @@
         <v>0</v>
       </c>
       <c r="Y652" s="30" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="653" spans="1:25" x14ac:dyDescent="0.2">
@@ -56645,7 +56652,7 @@
         <v>0</v>
       </c>
       <c r="Y653" s="30" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="654" spans="1:25" x14ac:dyDescent="0.2">
@@ -56722,7 +56729,7 @@
         <v>0</v>
       </c>
       <c r="Y654" s="30" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="655" spans="1:25" x14ac:dyDescent="0.2">
@@ -56799,7 +56806,7 @@
         <v>0</v>
       </c>
       <c r="Y655" s="30" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="656" spans="1:25" x14ac:dyDescent="0.2">
@@ -56876,7 +56883,7 @@
         <v>0</v>
       </c>
       <c r="Y656" s="30" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="657" spans="1:25" x14ac:dyDescent="0.2">
@@ -56953,7 +56960,7 @@
         <v>0</v>
       </c>
       <c r="Y657" s="30" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="658" spans="1:25" x14ac:dyDescent="0.2">
@@ -57030,7 +57037,7 @@
         <v>0</v>
       </c>
       <c r="Y658" s="30" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="659" spans="1:25" x14ac:dyDescent="0.2">
@@ -57107,7 +57114,7 @@
         <v>0</v>
       </c>
       <c r="Y659" s="30" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="660" spans="1:25" x14ac:dyDescent="0.2">
@@ -57184,7 +57191,7 @@
         <v>0</v>
       </c>
       <c r="Y660" s="30" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="661" spans="1:25" x14ac:dyDescent="0.2">
@@ -57261,7 +57268,7 @@
         <v>0</v>
       </c>
       <c r="Y661" s="30" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="662" spans="1:25" x14ac:dyDescent="0.2">
@@ -57338,7 +57345,7 @@
         <v>0</v>
       </c>
       <c r="Y662" s="30" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="663" spans="1:25" x14ac:dyDescent="0.2">
@@ -57415,7 +57422,7 @@
         <v>0</v>
       </c>
       <c r="Y663" s="30" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="664" spans="1:25" x14ac:dyDescent="0.2">
@@ -57492,7 +57499,7 @@
         <v>0</v>
       </c>
       <c r="Y664" s="30" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="665" spans="1:25" x14ac:dyDescent="0.2">
@@ -57569,7 +57576,7 @@
         <v>0</v>
       </c>
       <c r="Y665" s="30" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="666" spans="1:25" x14ac:dyDescent="0.2">
@@ -57646,7 +57653,7 @@
         <v>0</v>
       </c>
       <c r="Y666" s="30" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="667" spans="1:25" x14ac:dyDescent="0.2">
@@ -57723,7 +57730,7 @@
         <v>0</v>
       </c>
       <c r="Y667" s="30" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="668" spans="1:25" x14ac:dyDescent="0.2">
@@ -57800,7 +57807,7 @@
         <v>0</v>
       </c>
       <c r="Y668" s="30" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="669" spans="1:25" x14ac:dyDescent="0.2">
@@ -57877,7 +57884,7 @@
         <v>0</v>
       </c>
       <c r="Y669" s="30" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="670" spans="1:25" x14ac:dyDescent="0.2">
@@ -57954,7 +57961,7 @@
         <v>0</v>
       </c>
       <c r="Y670" s="30" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="671" spans="1:25" x14ac:dyDescent="0.2">
@@ -58031,7 +58038,7 @@
         <v>0</v>
       </c>
       <c r="Y671" s="30" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="672" spans="1:25" x14ac:dyDescent="0.2">
@@ -58108,7 +58115,7 @@
         <v>0</v>
       </c>
       <c r="Y672" s="30" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="673" spans="1:25" x14ac:dyDescent="0.2">
@@ -58185,7 +58192,7 @@
         <v>0</v>
       </c>
       <c r="Y673" s="30" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="674" spans="1:25" x14ac:dyDescent="0.2">
@@ -58262,7 +58269,7 @@
         <v>0</v>
       </c>
       <c r="Y674" s="30" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="675" spans="1:25" x14ac:dyDescent="0.2">
@@ -58339,7 +58346,7 @@
         <v>0</v>
       </c>
       <c r="Y675" s="30" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="676" spans="1:25" x14ac:dyDescent="0.2">
@@ -58416,7 +58423,7 @@
         <v>0</v>
       </c>
       <c r="Y676" s="30" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="677" spans="1:25" x14ac:dyDescent="0.2">
@@ -58493,7 +58500,7 @@
         <v>0</v>
       </c>
       <c r="Y677" s="30" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="678" spans="1:25" x14ac:dyDescent="0.2">
@@ -58570,7 +58577,7 @@
         <v>0</v>
       </c>
       <c r="Y678" s="30" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="679" spans="1:25" x14ac:dyDescent="0.2">
@@ -58647,7 +58654,7 @@
         <v>0</v>
       </c>
       <c r="Y679" s="30" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="680" spans="1:25" x14ac:dyDescent="0.2">
@@ -58724,7 +58731,7 @@
         <v>0</v>
       </c>
       <c r="Y680" s="30" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="681" spans="1:25" x14ac:dyDescent="0.2">
@@ -58801,7 +58808,7 @@
         <v>0</v>
       </c>
       <c r="Y681" s="30" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="682" spans="1:25" x14ac:dyDescent="0.2">
@@ -58878,7 +58885,7 @@
         <v>0</v>
       </c>
       <c r="Y682" s="30" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="683" spans="1:25" x14ac:dyDescent="0.2">
@@ -58955,7 +58962,7 @@
         <v>0</v>
       </c>
       <c r="Y683" s="30" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="684" spans="1:25" x14ac:dyDescent="0.2">
@@ -59032,7 +59039,7 @@
         <v>0</v>
       </c>
       <c r="Y684" s="30" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="685" spans="1:25" x14ac:dyDescent="0.2">
@@ -59109,7 +59116,7 @@
         <v>0</v>
       </c>
       <c r="Y685" s="30" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="686" spans="1:25" x14ac:dyDescent="0.2">
@@ -59186,7 +59193,7 @@
         <v>0</v>
       </c>
       <c r="Y686" s="30" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="687" spans="1:25" x14ac:dyDescent="0.2">
@@ -59263,7 +59270,7 @@
         <v>0</v>
       </c>
       <c r="Y687" s="30" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="688" spans="1:25" x14ac:dyDescent="0.2">
@@ -59340,7 +59347,7 @@
         <v>0</v>
       </c>
       <c r="Y688" s="30" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="689" spans="1:25" x14ac:dyDescent="0.2">
@@ -59417,7 +59424,7 @@
         <v>0</v>
       </c>
       <c r="Y689" s="30" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="690" spans="1:25" x14ac:dyDescent="0.2">
@@ -59494,7 +59501,7 @@
         <v>0</v>
       </c>
       <c r="Y690" s="30" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="691" spans="1:25" x14ac:dyDescent="0.2">
@@ -59571,7 +59578,7 @@
         <v>0</v>
       </c>
       <c r="Y691" s="30" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="692" spans="1:25" x14ac:dyDescent="0.2">
@@ -59648,7 +59655,7 @@
         <v>0</v>
       </c>
       <c r="Y692" s="30" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="693" spans="1:25" x14ac:dyDescent="0.2">
@@ -59725,7 +59732,7 @@
         <v>0</v>
       </c>
       <c r="Y693" s="30" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="694" spans="1:25" x14ac:dyDescent="0.2">
@@ -59802,7 +59809,7 @@
         <v>0</v>
       </c>
       <c r="Y694" s="30" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="695" spans="1:25" x14ac:dyDescent="0.2">
@@ -59879,7 +59886,7 @@
         <v>0</v>
       </c>
       <c r="Y695" s="30" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="696" spans="1:25" x14ac:dyDescent="0.2">
@@ -59956,7 +59963,7 @@
         <v>0</v>
       </c>
       <c r="Y696" s="30" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="697" spans="1:25" x14ac:dyDescent="0.2">
@@ -60033,7 +60040,7 @@
         <v>0</v>
       </c>
       <c r="Y697" s="30" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="698" spans="1:25" x14ac:dyDescent="0.2">
@@ -60110,7 +60117,7 @@
         <v>0</v>
       </c>
       <c r="Y698" s="30" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="699" spans="1:25" x14ac:dyDescent="0.2">
@@ -60187,7 +60194,7 @@
         <v>0</v>
       </c>
       <c r="Y699" s="30" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="700" spans="1:25" x14ac:dyDescent="0.2">
@@ -60264,7 +60271,7 @@
         <v>0</v>
       </c>
       <c r="Y700" s="30" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="701" spans="1:25" x14ac:dyDescent="0.2">
@@ -60341,7 +60348,7 @@
         <v>0</v>
       </c>
       <c r="Y701" s="30" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="702" spans="1:25" x14ac:dyDescent="0.2">
@@ -60418,7 +60425,7 @@
         <v>0</v>
       </c>
       <c r="Y702" s="30" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="703" spans="1:25" x14ac:dyDescent="0.2">
@@ -60495,7 +60502,7 @@
         <v>0</v>
       </c>
       <c r="Y703" s="30" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="704" spans="1:25" x14ac:dyDescent="0.2">
@@ -60572,7 +60579,7 @@
         <v>0</v>
       </c>
       <c r="Y704" s="30" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="705" spans="1:25" x14ac:dyDescent="0.2">
@@ -60649,7 +60656,7 @@
         <v>0</v>
       </c>
       <c r="Y705" s="30" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="706" spans="1:25" x14ac:dyDescent="0.2">
@@ -60726,7 +60733,7 @@
         <v>0</v>
       </c>
       <c r="Y706" s="30" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="707" spans="1:25" x14ac:dyDescent="0.2">
@@ -60803,7 +60810,7 @@
         <v>0</v>
       </c>
       <c r="Y707" s="30" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="708" spans="1:25" x14ac:dyDescent="0.2">
@@ -60880,7 +60887,7 @@
         <v>0</v>
       </c>
       <c r="Y708" s="30" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="709" spans="1:25" x14ac:dyDescent="0.2">
@@ -60957,7 +60964,7 @@
         <v>0</v>
       </c>
       <c r="Y709" s="30" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="710" spans="1:25" x14ac:dyDescent="0.2">
@@ -61034,7 +61041,7 @@
         <v>0</v>
       </c>
       <c r="Y710" s="30" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="711" spans="1:25" x14ac:dyDescent="0.2">
@@ -61111,7 +61118,7 @@
         <v>0</v>
       </c>
       <c r="Y711" s="30" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="712" spans="1:25" x14ac:dyDescent="0.2">
@@ -61188,7 +61195,7 @@
         <v>0</v>
       </c>
       <c r="Y712" s="30" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="713" spans="1:25" x14ac:dyDescent="0.2">
@@ -61265,7 +61272,7 @@
         <v>0</v>
       </c>
       <c r="Y713" s="30" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="714" spans="1:25" x14ac:dyDescent="0.2">
@@ -61342,7 +61349,7 @@
         <v>0</v>
       </c>
       <c r="Y714" s="30" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="715" spans="1:25" x14ac:dyDescent="0.2">
@@ -61419,7 +61426,7 @@
         <v>0</v>
       </c>
       <c r="Y715" s="30" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="716" spans="1:25" x14ac:dyDescent="0.2">
@@ -61496,7 +61503,7 @@
         <v>0</v>
       </c>
       <c r="Y716" s="30" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="717" spans="1:25" x14ac:dyDescent="0.2">
@@ -61573,7 +61580,7 @@
         <v>0</v>
       </c>
       <c r="Y717" s="30" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="718" spans="1:25" x14ac:dyDescent="0.2">
@@ -61650,7 +61657,7 @@
         <v>0</v>
       </c>
       <c r="Y718" s="30" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="719" spans="1:25" x14ac:dyDescent="0.2">
@@ -61727,7 +61734,7 @@
         <v>0</v>
       </c>
       <c r="Y719" s="30" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="720" spans="1:25" x14ac:dyDescent="0.2">
@@ -61804,7 +61811,7 @@
         <v>0</v>
       </c>
       <c r="Y720" s="30" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="721" spans="1:25" x14ac:dyDescent="0.2">
@@ -61881,7 +61888,7 @@
         <v>0</v>
       </c>
       <c r="Y721" s="30" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="722" spans="1:25" x14ac:dyDescent="0.2">
@@ -61958,7 +61965,7 @@
         <v>0</v>
       </c>
       <c r="Y722" s="30" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="723" spans="1:25" x14ac:dyDescent="0.2">
@@ -62035,7 +62042,7 @@
         <v>0</v>
       </c>
       <c r="Y723" s="30" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="724" spans="1:25" x14ac:dyDescent="0.2">
@@ -62112,7 +62119,7 @@
         <v>0</v>
       </c>
       <c r="Y724" s="30" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="725" spans="1:25" x14ac:dyDescent="0.2">
@@ -62189,7 +62196,7 @@
         <v>0</v>
       </c>
       <c r="Y725" s="30" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="726" spans="1:25" x14ac:dyDescent="0.2">
@@ -62266,7 +62273,7 @@
         <v>0</v>
       </c>
       <c r="Y726" s="30" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="727" spans="1:25" x14ac:dyDescent="0.2">
@@ -62343,7 +62350,7 @@
         <v>0</v>
       </c>
       <c r="Y727" s="30" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="728" spans="1:25" x14ac:dyDescent="0.2">
@@ -62420,7 +62427,7 @@
         <v>0</v>
       </c>
       <c r="Y728" s="30" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="729" spans="1:25" x14ac:dyDescent="0.2">
@@ -62497,7 +62504,7 @@
         <v>0</v>
       </c>
       <c r="Y729" s="30" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="730" spans="1:25" x14ac:dyDescent="0.2">
@@ -62574,7 +62581,7 @@
         <v>0</v>
       </c>
       <c r="Y730" s="30" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="731" spans="1:25" x14ac:dyDescent="0.2">
@@ -62651,7 +62658,7 @@
         <v>0</v>
       </c>
       <c r="Y731" s="30" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="732" spans="1:25" x14ac:dyDescent="0.2">
@@ -62728,7 +62735,7 @@
         <v>0</v>
       </c>
       <c r="Y732" s="30" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="733" spans="1:25" x14ac:dyDescent="0.2">
@@ -62805,7 +62812,7 @@
         <v>0</v>
       </c>
       <c r="Y733" s="30" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="734" spans="1:25" x14ac:dyDescent="0.2">
@@ -62882,7 +62889,7 @@
         <v>0</v>
       </c>
       <c r="Y734" s="30" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="735" spans="1:25" x14ac:dyDescent="0.2">
@@ -62959,7 +62966,7 @@
         <v>0</v>
       </c>
       <c r="Y735" s="30" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="736" spans="1:25" x14ac:dyDescent="0.2">
@@ -63036,7 +63043,7 @@
         <v>0</v>
       </c>
       <c r="Y736" s="30" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="737" spans="1:25" x14ac:dyDescent="0.2">
@@ -63113,7 +63120,7 @@
         <v>0</v>
       </c>
       <c r="Y737" s="30" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="738" spans="1:25" x14ac:dyDescent="0.2">
@@ -63190,7 +63197,7 @@
         <v>0</v>
       </c>
       <c r="Y738" s="30" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="739" spans="1:25" x14ac:dyDescent="0.2">
@@ -63267,7 +63274,7 @@
         <v>0</v>
       </c>
       <c r="Y739" s="30" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="740" spans="1:25" x14ac:dyDescent="0.2">
@@ -63344,7 +63351,7 @@
         <v>0</v>
       </c>
       <c r="Y740" s="30" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="741" spans="1:25" x14ac:dyDescent="0.2">
@@ -63421,7 +63428,7 @@
         <v>0</v>
       </c>
       <c r="Y741" s="30" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="742" spans="1:25" x14ac:dyDescent="0.2">
@@ -63498,7 +63505,7 @@
         <v>0</v>
       </c>
       <c r="Y742" s="30" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="743" spans="1:25" x14ac:dyDescent="0.2">
@@ -63575,7 +63582,7 @@
         <v>0</v>
       </c>
       <c r="Y743" s="30" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="744" spans="1:25" x14ac:dyDescent="0.2">
@@ -63652,7 +63659,7 @@
         <v>0</v>
       </c>
       <c r="Y744" s="30" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="745" spans="1:25" x14ac:dyDescent="0.2">
@@ -63729,7 +63736,7 @@
         <v>0</v>
       </c>
       <c r="Y745" s="30" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="746" spans="1:25" x14ac:dyDescent="0.2">
@@ -63806,7 +63813,7 @@
         <v>0</v>
       </c>
       <c r="Y746" s="30" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="747" spans="1:25" x14ac:dyDescent="0.2">
@@ -63883,7 +63890,7 @@
         <v>0</v>
       </c>
       <c r="Y747" s="30" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="748" spans="1:25" x14ac:dyDescent="0.2">
@@ -63960,7 +63967,7 @@
         <v>0</v>
       </c>
       <c r="Y748" s="30" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="749" spans="1:25" x14ac:dyDescent="0.2">
@@ -64037,7 +64044,7 @@
         <v>0</v>
       </c>
       <c r="Y749" s="30" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="750" spans="1:25" x14ac:dyDescent="0.2">
@@ -64114,7 +64121,7 @@
         <v>0</v>
       </c>
       <c r="Y750" s="30" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="751" spans="1:25" x14ac:dyDescent="0.2">
@@ -64191,7 +64198,7 @@
         <v>0</v>
       </c>
       <c r="Y751" s="30" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="752" spans="1:25" x14ac:dyDescent="0.2">
@@ -64268,7 +64275,7 @@
         <v>0</v>
       </c>
       <c r="Y752" s="30" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="753" spans="1:25" x14ac:dyDescent="0.2">
@@ -64345,7 +64352,7 @@
         <v>0</v>
       </c>
       <c r="Y753" s="30" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="754" spans="1:25" x14ac:dyDescent="0.2">
@@ -64422,7 +64429,7 @@
         <v>0</v>
       </c>
       <c r="Y754" s="30" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="755" spans="1:25" x14ac:dyDescent="0.2">
@@ -64499,7 +64506,7 @@
         <v>0</v>
       </c>
       <c r="Y755" s="30" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="756" spans="1:25" x14ac:dyDescent="0.2">
@@ -64576,7 +64583,7 @@
         <v>0</v>
       </c>
       <c r="Y756" s="30" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="757" spans="1:25" x14ac:dyDescent="0.2">
@@ -64653,7 +64660,7 @@
         <v>0</v>
       </c>
       <c r="Y757" s="30" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="758" spans="1:25" x14ac:dyDescent="0.2">
@@ -64730,7 +64737,7 @@
         <v>0</v>
       </c>
       <c r="Y758" s="30" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="759" spans="1:25" x14ac:dyDescent="0.2">
@@ -64807,7 +64814,7 @@
         <v>0</v>
       </c>
       <c r="Y759" s="30" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="760" spans="1:25" x14ac:dyDescent="0.2">
@@ -64884,7 +64891,7 @@
         <v>0</v>
       </c>
       <c r="Y760" s="30" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="761" spans="1:25" x14ac:dyDescent="0.2">
@@ -64961,7 +64968,7 @@
         <v>0</v>
       </c>
       <c r="Y761" s="30" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="762" spans="1:25" x14ac:dyDescent="0.2">
@@ -65038,7 +65045,7 @@
         <v>0</v>
       </c>
       <c r="Y762" s="30" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="763" spans="1:25" x14ac:dyDescent="0.2">
@@ -65115,7 +65122,7 @@
         <v>0</v>
       </c>
       <c r="Y763" s="30" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="764" spans="1:25" x14ac:dyDescent="0.2">
@@ -65192,7 +65199,7 @@
         <v>0</v>
       </c>
       <c r="Y764" s="30" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="765" spans="1:25" x14ac:dyDescent="0.2">
@@ -65269,7 +65276,7 @@
         <v>0</v>
       </c>
       <c r="Y765" s="30" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="766" spans="1:25" x14ac:dyDescent="0.2">
@@ -65346,7 +65353,7 @@
         <v>0</v>
       </c>
       <c r="Y766" s="30" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="767" spans="1:25" x14ac:dyDescent="0.2">
@@ -65423,7 +65430,7 @@
         <v>0</v>
       </c>
       <c r="Y767" s="30" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="768" spans="1:25" x14ac:dyDescent="0.2">
@@ -65500,7 +65507,7 @@
         <v>0</v>
       </c>
       <c r="Y768" s="30" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="769" spans="1:25" x14ac:dyDescent="0.2">
@@ -65577,7 +65584,7 @@
         <v>0</v>
       </c>
       <c r="Y769" s="30" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="770" spans="1:25" x14ac:dyDescent="0.2">
@@ -65654,7 +65661,7 @@
         <v>0</v>
       </c>
       <c r="Y770" s="30" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="771" spans="1:25" x14ac:dyDescent="0.2">
@@ -65731,7 +65738,7 @@
         <v>0</v>
       </c>
       <c r="Y771" s="30" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="772" spans="1:25" x14ac:dyDescent="0.2">
@@ -65808,7 +65815,7 @@
         <v>0</v>
       </c>
       <c r="Y772" s="30" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="773" spans="1:25" x14ac:dyDescent="0.2">
@@ -65885,7 +65892,7 @@
         <v>0</v>
       </c>
       <c r="Y773" s="30" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="774" spans="1:25" x14ac:dyDescent="0.2">
@@ -65962,7 +65969,7 @@
         <v>0</v>
       </c>
       <c r="Y774" s="30" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="775" spans="1:25" x14ac:dyDescent="0.2">
@@ -66039,7 +66046,7 @@
         <v>0</v>
       </c>
       <c r="Y775" s="30" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="776" spans="1:25" x14ac:dyDescent="0.2">
@@ -66116,7 +66123,7 @@
         <v>0</v>
       </c>
       <c r="Y776" s="30" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="777" spans="1:25" x14ac:dyDescent="0.2">
@@ -66193,7 +66200,7 @@
         <v>0</v>
       </c>
       <c r="Y777" s="30" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="778" spans="1:25" x14ac:dyDescent="0.2">
@@ -66270,7 +66277,7 @@
         <v>0</v>
       </c>
       <c r="Y778" s="30" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="779" spans="1:25" x14ac:dyDescent="0.2">
@@ -66347,7 +66354,7 @@
         <v>0</v>
       </c>
       <c r="Y779" s="30" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="780" spans="1:25" x14ac:dyDescent="0.2">
@@ -66424,7 +66431,7 @@
         <v>0</v>
       </c>
       <c r="Y780" s="30" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="781" spans="1:25" x14ac:dyDescent="0.2">
@@ -66501,7 +66508,7 @@
         <v>0</v>
       </c>
       <c r="Y781" s="30" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="782" spans="1:25" x14ac:dyDescent="0.2">
@@ -66578,7 +66585,7 @@
         <v>0</v>
       </c>
       <c r="Y782" s="30" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="783" spans="1:25" x14ac:dyDescent="0.2">
@@ -66655,7 +66662,7 @@
         <v>0</v>
       </c>
       <c r="Y783" s="30" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="784" spans="1:25" x14ac:dyDescent="0.2">
@@ -66732,7 +66739,7 @@
         <v>0</v>
       </c>
       <c r="Y784" s="30" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="785" spans="1:25" x14ac:dyDescent="0.2">
@@ -66809,12 +66816,12 @@
         <v>0</v>
       </c>
       <c r="Y785" s="30" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="786" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A786" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B786" s="2" t="s">
         <v>25</v>
@@ -66886,7 +66893,7 @@
         <v>0</v>
       </c>
       <c r="Y786" s="30" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="787" spans="1:25" x14ac:dyDescent="0.2">
@@ -66963,7 +66970,7 @@
         <v>0</v>
       </c>
       <c r="Y787" s="30" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="788" spans="1:25" x14ac:dyDescent="0.2">
@@ -67040,7 +67047,7 @@
         <v>0</v>
       </c>
       <c r="Y788" s="30" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="789" spans="1:25" x14ac:dyDescent="0.2">
@@ -67117,7 +67124,7 @@
         <v>0</v>
       </c>
       <c r="Y789" s="30" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="790" spans="1:25" x14ac:dyDescent="0.2">
@@ -67194,7 +67201,7 @@
         <v>0</v>
       </c>
       <c r="Y790" s="30" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="791" spans="1:25" x14ac:dyDescent="0.2">
@@ -67271,7 +67278,7 @@
         <v>0</v>
       </c>
       <c r="Y791" s="30" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="792" spans="1:25" x14ac:dyDescent="0.2">
@@ -67348,7 +67355,7 @@
         <v>0</v>
       </c>
       <c r="Y792" s="30" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="793" spans="1:25" x14ac:dyDescent="0.2">
@@ -67425,7 +67432,7 @@
         <v>0</v>
       </c>
       <c r="Y793" s="30" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="794" spans="1:25" x14ac:dyDescent="0.2">
@@ -67502,7 +67509,7 @@
         <v>0</v>
       </c>
       <c r="Y794" s="30" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="795" spans="1:25" x14ac:dyDescent="0.2">
@@ -67579,7 +67586,7 @@
         <v>0</v>
       </c>
       <c r="Y795" s="30" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="796" spans="1:25" x14ac:dyDescent="0.2">
@@ -67656,7 +67663,7 @@
         <v>0</v>
       </c>
       <c r="Y796" s="30" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="797" spans="1:25" x14ac:dyDescent="0.2">
@@ -67733,7 +67740,7 @@
         <v>0</v>
       </c>
       <c r="Y797" s="30" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="798" spans="1:25" x14ac:dyDescent="0.2">
@@ -67810,7 +67817,7 @@
         <v>0</v>
       </c>
       <c r="Y798" s="30" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="799" spans="1:25" x14ac:dyDescent="0.2">
@@ -67887,7 +67894,7 @@
         <v>0</v>
       </c>
       <c r="Y799" s="30" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="800" spans="1:25" x14ac:dyDescent="0.2">
@@ -67964,7 +67971,7 @@
         <v>0</v>
       </c>
       <c r="Y800" s="30" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="801" spans="1:25" x14ac:dyDescent="0.2">
@@ -68041,7 +68048,7 @@
         <v>0</v>
       </c>
       <c r="Y801" s="30" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="802" spans="1:25" x14ac:dyDescent="0.2">
@@ -68118,7 +68125,7 @@
         <v>0</v>
       </c>
       <c r="Y802" s="30" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="803" spans="1:25" x14ac:dyDescent="0.2">
@@ -68195,7 +68202,7 @@
         <v>0</v>
       </c>
       <c r="Y803" s="30" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="804" spans="1:25" x14ac:dyDescent="0.2">
@@ -68272,7 +68279,7 @@
         <v>0</v>
       </c>
       <c r="Y804" s="30" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="805" spans="1:25" x14ac:dyDescent="0.2">
@@ -68349,7 +68356,7 @@
         <v>0</v>
       </c>
       <c r="Y805" s="30" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="806" spans="1:25" x14ac:dyDescent="0.2">
@@ -68426,7 +68433,7 @@
         <v>0</v>
       </c>
       <c r="Y806" s="30" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="807" spans="1:25" x14ac:dyDescent="0.2">
@@ -68503,7 +68510,7 @@
         <v>0</v>
       </c>
       <c r="Y807" s="30" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="808" spans="1:25" x14ac:dyDescent="0.2">
@@ -68580,7 +68587,7 @@
         <v>0</v>
       </c>
       <c r="Y808" s="30" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="809" spans="1:25" x14ac:dyDescent="0.2">
@@ -68657,7 +68664,7 @@
         <v>0</v>
       </c>
       <c r="Y809" s="30" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="810" spans="1:25" x14ac:dyDescent="0.2">
@@ -68734,7 +68741,7 @@
         <v>0</v>
       </c>
       <c r="Y810" s="30" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="811" spans="1:25" x14ac:dyDescent="0.2">
@@ -68811,7 +68818,7 @@
         <v>0</v>
       </c>
       <c r="Y811" s="30" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="812" spans="1:25" x14ac:dyDescent="0.2">
@@ -68888,7 +68895,7 @@
         <v>0</v>
       </c>
       <c r="Y812" s="30" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="813" spans="1:25" x14ac:dyDescent="0.2">
@@ -68965,7 +68972,7 @@
         <v>0</v>
       </c>
       <c r="Y813" s="30" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="814" spans="1:25" x14ac:dyDescent="0.2">
@@ -69042,7 +69049,7 @@
         <v>0</v>
       </c>
       <c r="Y814" s="30" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="815" spans="1:25" x14ac:dyDescent="0.2">
@@ -69119,7 +69126,7 @@
         <v>0</v>
       </c>
       <c r="Y815" s="30" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="816" spans="1:25" x14ac:dyDescent="0.2">
@@ -69196,7 +69203,7 @@
         <v>0</v>
       </c>
       <c r="Y816" s="30" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="817" spans="1:25" x14ac:dyDescent="0.2">
@@ -69273,7 +69280,7 @@
         <v>0</v>
       </c>
       <c r="Y817" s="30" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="818" spans="1:25" x14ac:dyDescent="0.2">
@@ -69350,7 +69357,7 @@
         <v>0</v>
       </c>
       <c r="Y818" s="30" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="819" spans="1:25" x14ac:dyDescent="0.2">
@@ -69427,7 +69434,7 @@
         <v>0</v>
       </c>
       <c r="Y819" s="30" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="820" spans="1:25" x14ac:dyDescent="0.2">
@@ -69504,7 +69511,7 @@
         <v>0</v>
       </c>
       <c r="Y820" s="30" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="821" spans="1:25" x14ac:dyDescent="0.2">
@@ -69581,7 +69588,7 @@
         <v>0</v>
       </c>
       <c r="Y821" s="30" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="822" spans="1:25" x14ac:dyDescent="0.2">
@@ -69658,7 +69665,7 @@
         <v>0</v>
       </c>
       <c r="Y822" s="30" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="823" spans="1:25" x14ac:dyDescent="0.2">
@@ -69735,7 +69742,7 @@
         <v>0</v>
       </c>
       <c r="Y823" s="30" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="824" spans="1:25" x14ac:dyDescent="0.2">
@@ -69812,7 +69819,7 @@
         <v>0</v>
       </c>
       <c r="Y824" s="30" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="825" spans="1:25" x14ac:dyDescent="0.2">
@@ -69889,7 +69896,7 @@
         <v>0</v>
       </c>
       <c r="Y825" s="30" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="826" spans="1:25" x14ac:dyDescent="0.2">
@@ -69966,7 +69973,7 @@
         <v>0</v>
       </c>
       <c r="Y826" s="30" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="827" spans="1:25" x14ac:dyDescent="0.2">
@@ -70043,7 +70050,7 @@
         <v>0</v>
       </c>
       <c r="Y827" s="30" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="828" spans="1:25" x14ac:dyDescent="0.2">
@@ -70120,7 +70127,7 @@
         <v>0</v>
       </c>
       <c r="Y828" s="30" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="829" spans="1:25" x14ac:dyDescent="0.2">
@@ -70197,7 +70204,7 @@
         <v>0</v>
       </c>
       <c r="Y829" s="30" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="830" spans="1:25" x14ac:dyDescent="0.2">
@@ -70274,7 +70281,7 @@
         <v>0</v>
       </c>
       <c r="Y830" s="30" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="831" spans="1:25" x14ac:dyDescent="0.2">
@@ -70351,7 +70358,7 @@
         <v>0</v>
       </c>
       <c r="Y831" s="30" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="832" spans="1:25" x14ac:dyDescent="0.2">
@@ -70428,7 +70435,7 @@
         <v>0</v>
       </c>
       <c r="Y832" s="30" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="833" spans="1:25" x14ac:dyDescent="0.2">
@@ -70505,7 +70512,7 @@
         <v>0</v>
       </c>
       <c r="Y833" s="30" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="834" spans="1:25" x14ac:dyDescent="0.2">
@@ -70582,7 +70589,7 @@
         <v>0</v>
       </c>
       <c r="Y834" s="30" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="835" spans="1:25" x14ac:dyDescent="0.2">
@@ -70659,7 +70666,7 @@
         <v>0</v>
       </c>
       <c r="Y835" s="30" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="836" spans="1:25" x14ac:dyDescent="0.2">
@@ -70736,7 +70743,7 @@
         <v>0</v>
       </c>
       <c r="Y836" s="30" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="837" spans="1:25" x14ac:dyDescent="0.2">
@@ -70813,7 +70820,7 @@
         <v>0</v>
       </c>
       <c r="Y837" s="30" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="838" spans="1:25" x14ac:dyDescent="0.2">
@@ -70890,7 +70897,7 @@
         <v>0</v>
       </c>
       <c r="Y838" s="30" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="839" spans="1:25" x14ac:dyDescent="0.2">
@@ -70967,7 +70974,7 @@
         <v>0</v>
       </c>
       <c r="Y839" s="30" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="840" spans="1:25" x14ac:dyDescent="0.2">
@@ -71044,7 +71051,7 @@
         <v>0</v>
       </c>
       <c r="Y840" s="30" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="841" spans="1:25" x14ac:dyDescent="0.2">
@@ -71121,7 +71128,7 @@
         <v>0</v>
       </c>
       <c r="Y841" s="30" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="842" spans="1:25" x14ac:dyDescent="0.2">
@@ -71198,7 +71205,7 @@
         <v>0</v>
       </c>
       <c r="Y842" s="30" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="843" spans="1:25" x14ac:dyDescent="0.2">
@@ -71275,7 +71282,7 @@
         <v>0</v>
       </c>
       <c r="Y843" s="30" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="844" spans="1:25" x14ac:dyDescent="0.2">
@@ -71352,7 +71359,7 @@
         <v>0</v>
       </c>
       <c r="Y844" s="30" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="845" spans="1:25" x14ac:dyDescent="0.2">
@@ -71429,7 +71436,7 @@
         <v>0</v>
       </c>
       <c r="Y845" s="30" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="846" spans="1:25" x14ac:dyDescent="0.2">
@@ -71506,7 +71513,7 @@
         <v>0</v>
       </c>
       <c r="Y846" s="30" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="847" spans="1:25" x14ac:dyDescent="0.2">
@@ -71583,7 +71590,7 @@
         <v>0</v>
       </c>
       <c r="Y847" s="30" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="848" spans="1:25" x14ac:dyDescent="0.2">
@@ -71660,7 +71667,7 @@
         <v>0</v>
       </c>
       <c r="Y848" s="30" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="849" spans="1:25" x14ac:dyDescent="0.2">
@@ -71737,7 +71744,7 @@
         <v>0</v>
       </c>
       <c r="Y849" s="30" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="850" spans="1:25" x14ac:dyDescent="0.2">
@@ -71814,7 +71821,7 @@
         <v>0</v>
       </c>
       <c r="Y850" s="30" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="851" spans="1:25" x14ac:dyDescent="0.2">
@@ -71891,7 +71898,7 @@
         <v>0</v>
       </c>
       <c r="Y851" s="30" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="852" spans="1:25" x14ac:dyDescent="0.2">
@@ -71901,8 +71908,8 @@
       <c r="B852" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C852" s="3" t="s">
-        <v>981</v>
+      <c r="C852" s="3">
+        <v>40756</v>
       </c>
       <c r="D852" s="3">
         <v>41191</v>
@@ -71968,7 +71975,7 @@
         <v>0</v>
       </c>
       <c r="Y852" s="30" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="853" spans="1:25" x14ac:dyDescent="0.2">
@@ -72045,7 +72052,7 @@
         <v>0</v>
       </c>
       <c r="Y853" s="30" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="854" spans="1:25" x14ac:dyDescent="0.2">
@@ -72122,7 +72129,7 @@
         <v>0</v>
       </c>
       <c r="Y854" s="30" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="855" spans="1:25" x14ac:dyDescent="0.2">
@@ -72199,7 +72206,7 @@
         <v>0</v>
       </c>
       <c r="Y855" s="30" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="856" spans="1:25" x14ac:dyDescent="0.2">
@@ -72276,7 +72283,7 @@
         <v>0</v>
       </c>
       <c r="Y856" s="30" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="857" spans="1:25" x14ac:dyDescent="0.2">
@@ -72353,7 +72360,7 @@
         <v>0</v>
       </c>
       <c r="Y857" s="30" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="858" spans="1:25" x14ac:dyDescent="0.2">
@@ -72430,7 +72437,7 @@
         <v>0</v>
       </c>
       <c r="Y858" s="30" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="859" spans="1:25" x14ac:dyDescent="0.2">
@@ -72507,7 +72514,7 @@
         <v>0</v>
       </c>
       <c r="Y859" s="30" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="860" spans="1:25" x14ac:dyDescent="0.2">
@@ -72584,7 +72591,7 @@
         <v>0</v>
       </c>
       <c r="Y860" s="30" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="861" spans="1:25" x14ac:dyDescent="0.2">
@@ -72661,7 +72668,7 @@
         <v>0</v>
       </c>
       <c r="Y861" s="30" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="862" spans="1:25" x14ac:dyDescent="0.2">
@@ -72738,7 +72745,7 @@
         <v>0</v>
       </c>
       <c r="Y862" s="30" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="863" spans="1:25" x14ac:dyDescent="0.2">
@@ -72815,7 +72822,7 @@
         <v>0</v>
       </c>
       <c r="Y863" s="30" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="864" spans="1:25" x14ac:dyDescent="0.2">
@@ -72892,7 +72899,7 @@
         <v>0</v>
       </c>
       <c r="Y864" s="30" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="865" spans="1:25" x14ac:dyDescent="0.2">
@@ -72969,7 +72976,7 @@
         <v>0</v>
       </c>
       <c r="Y865" s="30" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="866" spans="1:25" x14ac:dyDescent="0.2">
@@ -73046,7 +73053,7 @@
         <v>0</v>
       </c>
       <c r="Y866" s="30" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="867" spans="1:25" x14ac:dyDescent="0.2">
@@ -73123,7 +73130,7 @@
         <v>0</v>
       </c>
       <c r="Y867" s="30" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="868" spans="1:25" x14ac:dyDescent="0.2">
@@ -73200,7 +73207,7 @@
         <v>0</v>
       </c>
       <c r="Y868" s="30" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="869" spans="1:25" x14ac:dyDescent="0.2">
@@ -73277,7 +73284,7 @@
         <v>0</v>
       </c>
       <c r="Y869" s="30" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="870" spans="1:25" x14ac:dyDescent="0.2">
@@ -73354,7 +73361,7 @@
         <v>0</v>
       </c>
       <c r="Y870" s="30" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="871" spans="1:25" x14ac:dyDescent="0.2">
@@ -73431,7 +73438,7 @@
         <v>0</v>
       </c>
       <c r="Y871" s="30" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="872" spans="1:25" x14ac:dyDescent="0.2">
@@ -73508,7 +73515,7 @@
         <v>0</v>
       </c>
       <c r="Y872" s="30" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="873" spans="1:25" x14ac:dyDescent="0.2">
@@ -73585,7 +73592,7 @@
         <v>0</v>
       </c>
       <c r="Y873" s="30" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="874" spans="1:25" x14ac:dyDescent="0.2">
@@ -73662,7 +73669,7 @@
         <v>0</v>
       </c>
       <c r="Y874" s="30" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="875" spans="1:25" x14ac:dyDescent="0.2">
@@ -73739,7 +73746,7 @@
         <v>0</v>
       </c>
       <c r="Y875" s="30" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="876" spans="1:25" x14ac:dyDescent="0.2">
@@ -73816,7 +73823,7 @@
         <v>0</v>
       </c>
       <c r="Y876" s="30" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="877" spans="1:25" x14ac:dyDescent="0.2">
@@ -73893,7 +73900,7 @@
         <v>0</v>
       </c>
       <c r="Y877" s="30" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="878" spans="1:25" x14ac:dyDescent="0.2">
@@ -73970,7 +73977,7 @@
         <v>0</v>
       </c>
       <c r="Y878" s="30" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="879" spans="1:25" x14ac:dyDescent="0.2">
@@ -74047,7 +74054,7 @@
         <v>0</v>
       </c>
       <c r="Y879" s="30" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="880" spans="1:25" x14ac:dyDescent="0.2">
@@ -74124,7 +74131,7 @@
         <v>0</v>
       </c>
       <c r="Y880" s="30" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="881" spans="1:25" x14ac:dyDescent="0.2">
@@ -74201,7 +74208,7 @@
         <v>0</v>
       </c>
       <c r="Y881" s="30" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="882" spans="1:25" x14ac:dyDescent="0.2">
@@ -74278,7 +74285,7 @@
         <v>0</v>
       </c>
       <c r="Y882" s="30" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="883" spans="1:25" x14ac:dyDescent="0.2">
@@ -74355,7 +74362,7 @@
         <v>0</v>
       </c>
       <c r="Y883" s="30" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="884" spans="1:25" x14ac:dyDescent="0.2">
@@ -74432,7 +74439,7 @@
         <v>0</v>
       </c>
       <c r="Y884" s="30" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="885" spans="1:25" x14ac:dyDescent="0.2">
@@ -74509,7 +74516,7 @@
         <v>0</v>
       </c>
       <c r="Y885" s="30" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="886" spans="1:25" x14ac:dyDescent="0.2">
@@ -74586,7 +74593,7 @@
         <v>0</v>
       </c>
       <c r="Y886" s="30" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="887" spans="1:25" x14ac:dyDescent="0.2">
@@ -74663,7 +74670,7 @@
         <v>0</v>
       </c>
       <c r="Y887" s="30" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="888" spans="1:25" x14ac:dyDescent="0.2">
@@ -74740,7 +74747,7 @@
         <v>0</v>
       </c>
       <c r="Y888" s="30" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="889" spans="1:25" x14ac:dyDescent="0.2">
@@ -74817,7 +74824,7 @@
         <v>0</v>
       </c>
       <c r="Y889" s="30" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="890" spans="1:25" x14ac:dyDescent="0.2">
@@ -74894,7 +74901,7 @@
         <v>0</v>
       </c>
       <c r="Y890" s="30" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="891" spans="1:25" x14ac:dyDescent="0.2">
@@ -74971,15 +74978,15 @@
         <v>0</v>
       </c>
       <c r="Y891" s="30" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="892" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A892" s="29" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B892" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C892" s="3">
         <v>40087</v>
@@ -75048,15 +75055,15 @@
         <v>0</v>
       </c>
       <c r="Y892" s="30" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="893" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A893" s="29" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B893" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C893" s="3">
         <v>34547</v>
@@ -75125,15 +75132,15 @@
         <v>0</v>
       </c>
       <c r="Y893" s="30" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="894" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A894" s="29" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B894" s="2" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C894" s="3">
         <v>40878</v>
@@ -75202,15 +75209,15 @@
         <v>0</v>
       </c>
       <c r="Y894" s="30" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="895" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A895" s="29" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B895" s="2" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C895" s="3">
         <v>40374</v>
@@ -75279,15 +75286,15 @@
         <v>0</v>
       </c>
       <c r="Y895" s="30" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="896" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A896" s="29" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B896" s="2" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C896" s="3">
         <v>39630</v>
@@ -75356,15 +75363,15 @@
         <v>0</v>
       </c>
       <c r="Y896" s="30" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="897" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A897" s="29" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B897" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C897" s="3">
         <v>43172</v>
@@ -75433,15 +75440,15 @@
         <v>0</v>
       </c>
       <c r="Y897" s="30" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="898" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A898" s="29" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B898" s="2" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C898" s="3">
         <v>43173</v>
@@ -75510,15 +75517,15 @@
         <v>0</v>
       </c>
       <c r="Y898" s="30" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="899" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A899" s="29" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B899" s="2" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C899" s="3">
         <v>41183</v>
@@ -75587,15 +75594,15 @@
         <v>0</v>
       </c>
       <c r="Y899" s="30" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="900" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A900" s="29" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B900" s="2" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C900" s="3">
         <v>41821</v>
@@ -75664,15 +75671,15 @@
         <v>0</v>
       </c>
       <c r="Y900" s="30" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="901" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A901" s="29" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B901" s="2" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C901" s="3">
         <v>36342</v>
@@ -75741,15 +75748,15 @@
         <v>0</v>
       </c>
       <c r="Y901" s="30" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="902" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A902" s="29" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B902" s="2" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C902" s="3">
         <v>42095</v>
@@ -75818,15 +75825,15 @@
         <v>0</v>
       </c>
       <c r="Y902" s="30" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="903" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A903" s="29" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B903" s="2" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C903" s="3">
         <v>42188</v>
@@ -75895,15 +75902,15 @@
         <v>0</v>
       </c>
       <c r="Y903" s="30" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="904" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A904" s="29" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B904" s="2" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C904" s="3">
         <v>42156</v>
@@ -75972,7 +75979,7 @@
         <v>0</v>
       </c>
       <c r="Y904" s="30" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="905" spans="1:25" x14ac:dyDescent="0.2">
@@ -76049,11 +76056,13 @@
         <v>0</v>
       </c>
       <c r="Y905" s="30" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="A1:Y905"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
